--- a/simulations/cleaned_inclusion_exclusion/Leenaars_2020 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Leenaars_2020 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
@@ -414,10 +414,10 @@
         <v>309</v>
       </c>
       <c r="C2">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="D2">
-        <v>301</v>
+        <v>319.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,10 +428,10 @@
         <v>315</v>
       </c>
       <c r="C3">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="D3">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,10 +442,10 @@
         <v>729</v>
       </c>
       <c r="C4">
-        <v>718</v>
+        <v>813</v>
       </c>
       <c r="D4">
-        <v>723.5</v>
+        <v>771</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,10 +456,10 @@
         <v>161</v>
       </c>
       <c r="C5">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D5">
-        <v>175.5</v>
+        <v>168.5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,10 +470,10 @@
         <v>755</v>
       </c>
       <c r="C6">
-        <v>749</v>
+        <v>763</v>
       </c>
       <c r="D6">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,10 +484,10 @@
         <v>1433</v>
       </c>
       <c r="C7">
-        <v>1457</v>
+        <v>1505</v>
       </c>
       <c r="D7">
-        <v>1445</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,10 +498,10 @@
         <v>813</v>
       </c>
       <c r="C8">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="D8">
-        <v>824.5</v>
+        <v>819</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,10 +512,10 @@
         <v>639</v>
       </c>
       <c r="C9">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D9">
-        <v>660</v>
+        <v>666.5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -526,10 +526,10 @@
         <v>1920</v>
       </c>
       <c r="C10">
-        <v>1977</v>
+        <v>2032</v>
       </c>
       <c r="D10">
-        <v>1948.5</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -540,10 +540,10 @@
         <v>87</v>
       </c>
       <c r="C11">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D11">
-        <v>81</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,10 +554,10 @@
         <v>2698</v>
       </c>
       <c r="C12">
-        <v>2637</v>
+        <v>2738</v>
       </c>
       <c r="D12">
-        <v>2667.5</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -568,10 +568,10 @@
         <v>1351</v>
       </c>
       <c r="C13">
-        <v>1393</v>
+        <v>1418</v>
       </c>
       <c r="D13">
-        <v>1372</v>
+        <v>1384.5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -582,10 +582,10 @@
         <v>1525</v>
       </c>
       <c r="C14">
-        <v>1414</v>
+        <v>1595</v>
       </c>
       <c r="D14">
-        <v>1469.5</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -596,10 +596,10 @@
         <v>2992</v>
       </c>
       <c r="C15">
-        <v>2999</v>
+        <v>3002</v>
       </c>
       <c r="D15">
-        <v>2995.5</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -610,10 +610,10 @@
         <v>106</v>
       </c>
       <c r="C16">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="D16">
-        <v>99</v>
+        <v>119.5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -624,10 +624,10 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="D17">
-        <v>26.5</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -638,10 +638,10 @@
         <v>608</v>
       </c>
       <c r="C18">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="D18">
-        <v>619</v>
+        <v>614.5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -652,10 +652,10 @@
         <v>63</v>
       </c>
       <c r="C19">
+        <v>79</v>
+      </c>
+      <c r="D19">
         <v>71</v>
-      </c>
-      <c r="D19">
-        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -666,10 +666,10 @@
         <v>410</v>
       </c>
       <c r="C20">
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="D20">
-        <v>424</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -680,10 +680,10 @@
         <v>61</v>
       </c>
       <c r="C21">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="D21">
-        <v>84</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -694,10 +694,10 @@
         <v>601</v>
       </c>
       <c r="C22">
-        <v>547</v>
+        <v>625</v>
       </c>
       <c r="D22">
-        <v>574</v>
+        <v>613</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -708,10 +708,10 @@
         <v>1448</v>
       </c>
       <c r="C23">
-        <v>1490</v>
+        <v>1537</v>
       </c>
       <c r="D23">
-        <v>1469</v>
+        <v>1492.5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -722,10 +722,10 @@
         <v>1940</v>
       </c>
       <c r="C24">
-        <v>1986</v>
+        <v>2027</v>
       </c>
       <c r="D24">
-        <v>1963</v>
+        <v>1983.5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -750,10 +750,10 @@
         <v>22</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D26">
-        <v>18.5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -764,10 +764,10 @@
         <v>1136</v>
       </c>
       <c r="C27">
-        <v>1136</v>
+        <v>1146</v>
       </c>
       <c r="D27">
-        <v>1136</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -778,10 +778,10 @@
         <v>441</v>
       </c>
       <c r="C28">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D28">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -792,10 +792,10 @@
         <v>2458</v>
       </c>
       <c r="C29">
-        <v>2335</v>
+        <v>2396</v>
       </c>
       <c r="D29">
-        <v>2396.5</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -806,10 +806,10 @@
         <v>154</v>
       </c>
       <c r="C30">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="D30">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -820,10 +820,10 @@
         <v>1559</v>
       </c>
       <c r="C31">
-        <v>1574</v>
+        <v>1613</v>
       </c>
       <c r="D31">
-        <v>1566.5</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -834,10 +834,10 @@
         <v>928</v>
       </c>
       <c r="C32">
-        <v>914</v>
+        <v>934</v>
       </c>
       <c r="D32">
-        <v>921</v>
+        <v>931</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -848,10 +848,10 @@
         <v>1199</v>
       </c>
       <c r="C33">
-        <v>1145</v>
+        <v>1158</v>
       </c>
       <c r="D33">
-        <v>1172</v>
+        <v>1178.5</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -862,10 +862,10 @@
         <v>141</v>
       </c>
       <c r="C34">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="D34">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -876,10 +876,10 @@
         <v>19</v>
       </c>
       <c r="C35">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="D35">
-        <v>39.5</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -890,10 +890,10 @@
         <v>1379</v>
       </c>
       <c r="C36">
-        <v>1405</v>
+        <v>1451</v>
       </c>
       <c r="D36">
-        <v>1392</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -904,10 +904,10 @@
         <v>466</v>
       </c>
       <c r="C37">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="D37">
-        <v>502</v>
+        <v>510</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -918,10 +918,10 @@
         <v>329</v>
       </c>
       <c r="C38">
-        <v>410</v>
+        <v>501</v>
       </c>
       <c r="D38">
-        <v>369.5</v>
+        <v>415</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -932,10 +932,10 @@
         <v>1631</v>
       </c>
       <c r="C39">
-        <v>1615</v>
+        <v>1648</v>
       </c>
       <c r="D39">
-        <v>1623</v>
+        <v>1639.5</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -946,10 +946,10 @@
         <v>285</v>
       </c>
       <c r="C40">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="D40">
-        <v>284</v>
+        <v>297.5</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -960,10 +960,10 @@
         <v>551</v>
       </c>
       <c r="C41">
-        <v>573</v>
+        <v>651</v>
       </c>
       <c r="D41">
-        <v>562</v>
+        <v>601</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -974,10 +974,10 @@
         <v>970</v>
       </c>
       <c r="C42">
-        <v>903</v>
+        <v>1034</v>
       </c>
       <c r="D42">
-        <v>936.5</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -988,10 +988,10 @@
         <v>206</v>
       </c>
       <c r="C43">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="D43">
-        <v>220</v>
+        <v>229.5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1002,10 +1002,10 @@
         <v>421</v>
       </c>
       <c r="C44">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="D44">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1016,10 +1016,10 @@
         <v>3419</v>
       </c>
       <c r="C45">
-        <v>3455</v>
+        <v>3434</v>
       </c>
       <c r="D45">
-        <v>3437</v>
+        <v>3426.5</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1030,10 +1030,10 @@
         <v>1648</v>
       </c>
       <c r="C46">
-        <v>1551</v>
+        <v>1618</v>
       </c>
       <c r="D46">
-        <v>1599.5</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1044,10 +1044,10 @@
         <v>3245</v>
       </c>
       <c r="C47">
-        <v>3195</v>
+        <v>3227</v>
       </c>
       <c r="D47">
-        <v>3220</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1058,10 +1058,10 @@
         <v>1443</v>
       </c>
       <c r="C48">
-        <v>1465</v>
+        <v>1514</v>
       </c>
       <c r="D48">
-        <v>1454</v>
+        <v>1478.5</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1072,10 +1072,10 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D49">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1086,10 +1086,10 @@
         <v>15</v>
       </c>
       <c r="C50">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="D50">
-        <v>38.5</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1100,10 +1100,10 @@
         <v>1372</v>
       </c>
       <c r="C51">
-        <v>1390</v>
+        <v>1446</v>
       </c>
       <c r="D51">
-        <v>1381</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1114,10 +1114,10 @@
         <v>943</v>
       </c>
       <c r="C52">
-        <v>954</v>
+        <v>885</v>
       </c>
       <c r="D52">
-        <v>948.5</v>
+        <v>914</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1128,10 +1128,10 @@
         <v>70</v>
       </c>
       <c r="C53">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="D53">
-        <v>41</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1142,10 +1142,10 @@
         <v>24</v>
       </c>
       <c r="C54">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D54">
-        <v>20.5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1156,10 +1156,10 @@
         <v>468</v>
       </c>
       <c r="C55">
-        <v>560</v>
+        <v>593</v>
       </c>
       <c r="D55">
-        <v>514</v>
+        <v>530.5</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1170,10 +1170,10 @@
         <v>886</v>
       </c>
       <c r="C56">
-        <v>863</v>
+        <v>942</v>
       </c>
       <c r="D56">
-        <v>874.5</v>
+        <v>914</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1184,10 +1184,10 @@
         <v>54</v>
       </c>
       <c r="C57">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="D57">
-        <v>51.5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1198,10 +1198,10 @@
         <v>322</v>
       </c>
       <c r="C58">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="D58">
-        <v>331.5</v>
+        <v>353</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1212,10 +1212,10 @@
         <v>1386</v>
       </c>
       <c r="C59">
-        <v>1406</v>
+        <v>1464</v>
       </c>
       <c r="D59">
-        <v>1396</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1226,10 +1226,10 @@
         <v>327</v>
       </c>
       <c r="C60">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="D60">
-        <v>365</v>
+        <v>370.5</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1240,10 +1240,10 @@
         <v>1678</v>
       </c>
       <c r="C61">
-        <v>1688</v>
+        <v>1679</v>
       </c>
       <c r="D61">
-        <v>1683</v>
+        <v>1678.5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1254,10 +1254,10 @@
         <v>1441</v>
       </c>
       <c r="C62">
-        <v>1445</v>
+        <v>1491</v>
       </c>
       <c r="D62">
-        <v>1443</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1268,10 +1268,10 @@
         <v>1451</v>
       </c>
       <c r="C63">
-        <v>1454</v>
+        <v>1496</v>
       </c>
       <c r="D63">
-        <v>1452.5</v>
+        <v>1473.5</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1282,10 +1282,10 @@
         <v>160</v>
       </c>
       <c r="C64">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="D64">
-        <v>158</v>
+        <v>173.5</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1296,10 +1296,10 @@
         <v>1740</v>
       </c>
       <c r="C65">
-        <v>1661</v>
+        <v>1808</v>
       </c>
       <c r="D65">
-        <v>1700.5</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1310,10 +1310,10 @@
         <v>267</v>
       </c>
       <c r="C66">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="D66">
-        <v>267.5</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1324,10 +1324,10 @@
         <v>897</v>
       </c>
       <c r="C67">
-        <v>897</v>
+        <v>975</v>
       </c>
       <c r="D67">
-        <v>897</v>
+        <v>936</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1338,10 +1338,10 @@
         <v>255</v>
       </c>
       <c r="C68">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D68">
-        <v>257.5</v>
+        <v>256</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1352,10 +1352,10 @@
         <v>3733</v>
       </c>
       <c r="C69">
-        <v>3826</v>
+        <v>3745</v>
       </c>
       <c r="D69">
-        <v>3779.5</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1366,10 +1366,10 @@
         <v>342</v>
       </c>
       <c r="C70">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="D70">
-        <v>352</v>
+        <v>366</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1380,10 +1380,10 @@
         <v>2967</v>
       </c>
       <c r="C71">
-        <v>3041</v>
+        <v>2993</v>
       </c>
       <c r="D71">
-        <v>3004</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1394,10 +1394,10 @@
         <v>682</v>
       </c>
       <c r="C72">
-        <v>642</v>
+        <v>696</v>
       </c>
       <c r="D72">
-        <v>662</v>
+        <v>689</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1408,10 +1408,10 @@
         <v>1008</v>
       </c>
       <c r="C73">
-        <v>1049</v>
+        <v>994</v>
       </c>
       <c r="D73">
-        <v>1028.5</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1422,10 +1422,10 @@
         <v>1368</v>
       </c>
       <c r="C74">
-        <v>1384</v>
+        <v>1437</v>
       </c>
       <c r="D74">
-        <v>1376</v>
+        <v>1402.5</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1436,10 +1436,10 @@
         <v>325</v>
       </c>
       <c r="C75">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="D75">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1450,10 +1450,10 @@
         <v>2113</v>
       </c>
       <c r="C76">
-        <v>2184</v>
+        <v>2147</v>
       </c>
       <c r="D76">
-        <v>2148.5</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1464,10 +1464,10 @@
         <v>279</v>
       </c>
       <c r="C77">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="D77">
-        <v>283.5</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1478,10 +1478,10 @@
         <v>92</v>
       </c>
       <c r="C78">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D78">
-        <v>97</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1492,10 +1492,10 @@
         <v>1983</v>
       </c>
       <c r="C79">
-        <v>2017</v>
+        <v>1762</v>
       </c>
       <c r="D79">
-        <v>2000</v>
+        <v>1872.5</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1506,10 +1506,10 @@
         <v>1695</v>
       </c>
       <c r="C80">
-        <v>1757</v>
+        <v>1704</v>
       </c>
       <c r="D80">
-        <v>1726</v>
+        <v>1699.5</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1520,10 +1520,10 @@
         <v>1415</v>
       </c>
       <c r="C81">
-        <v>1439</v>
+        <v>1501</v>
       </c>
       <c r="D81">
-        <v>1427</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1534,10 +1534,10 @@
         <v>450</v>
       </c>
       <c r="C82">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="D82">
-        <v>483.5</v>
+        <v>471</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1548,10 +1548,10 @@
         <v>494</v>
       </c>
       <c r="C83">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="D83">
-        <v>500.5</v>
+        <v>532.5</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1562,10 +1562,10 @@
         <v>225</v>
       </c>
       <c r="C84">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="D84">
-        <v>217.5</v>
+        <v>233.5</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1576,10 +1576,10 @@
         <v>1366</v>
       </c>
       <c r="C85">
-        <v>1387</v>
+        <v>1443</v>
       </c>
       <c r="D85">
-        <v>1376.5</v>
+        <v>1404.5</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1590,10 +1590,10 @@
         <v>1361</v>
       </c>
       <c r="C86">
-        <v>1388</v>
+        <v>1442</v>
       </c>
       <c r="D86">
-        <v>1374.5</v>
+        <v>1401.5</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1604,10 +1604,10 @@
         <v>1051</v>
       </c>
       <c r="C87">
-        <v>1072</v>
+        <v>1109</v>
       </c>
       <c r="D87">
-        <v>1061.5</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1618,10 +1618,10 @@
         <v>2466</v>
       </c>
       <c r="C88">
-        <v>2491</v>
+        <v>2541</v>
       </c>
       <c r="D88">
-        <v>2478.5</v>
+        <v>2503.5</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1632,10 +1632,10 @@
         <v>2064</v>
       </c>
       <c r="C89">
-        <v>2044</v>
+        <v>2113</v>
       </c>
       <c r="D89">
-        <v>2054</v>
+        <v>2088.5</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1646,10 +1646,10 @@
         <v>1580</v>
       </c>
       <c r="C90">
-        <v>1686</v>
+        <v>1316</v>
       </c>
       <c r="D90">
-        <v>1633</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1660,10 +1660,10 @@
         <v>775</v>
       </c>
       <c r="C91">
-        <v>773</v>
+        <v>755</v>
       </c>
       <c r="D91">
-        <v>774</v>
+        <v>765</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1674,10 +1674,10 @@
         <v>3664</v>
       </c>
       <c r="C92">
-        <v>3678</v>
+        <v>3646</v>
       </c>
       <c r="D92">
-        <v>3671</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1688,10 +1688,10 @@
         <v>2202</v>
       </c>
       <c r="C93">
-        <v>2264</v>
+        <v>2339</v>
       </c>
       <c r="D93">
-        <v>2233</v>
+        <v>2270.5</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1702,10 +1702,10 @@
         <v>867</v>
       </c>
       <c r="C94">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="D94">
-        <v>895</v>
+        <v>892.5</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1716,10 +1716,10 @@
         <v>2609</v>
       </c>
       <c r="C95">
-        <v>2592</v>
+        <v>2662</v>
       </c>
       <c r="D95">
-        <v>2600.5</v>
+        <v>2635.5</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1730,10 +1730,10 @@
         <v>859</v>
       </c>
       <c r="C96">
-        <v>877</v>
+        <v>841</v>
       </c>
       <c r="D96">
-        <v>868</v>
+        <v>850</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1744,10 +1744,10 @@
         <v>385</v>
       </c>
       <c r="C97">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="D97">
-        <v>365.5</v>
+        <v>385.5</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1758,10 +1758,10 @@
         <v>38</v>
       </c>
       <c r="C98">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D98">
-        <v>34.5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1772,10 +1772,10 @@
         <v>1675</v>
       </c>
       <c r="C99">
-        <v>1745</v>
+        <v>1411</v>
       </c>
       <c r="D99">
-        <v>1710</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1786,10 +1786,10 @@
         <v>490</v>
       </c>
       <c r="C100">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="D100">
-        <v>488.5</v>
+        <v>483</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1800,10 +1800,10 @@
         <v>164</v>
       </c>
       <c r="C101">
-        <v>192</v>
+        <v>318</v>
       </c>
       <c r="D101">
-        <v>178</v>
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1814,10 +1814,10 @@
         <v>428</v>
       </c>
       <c r="C102">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="D102">
-        <v>443.5</v>
+        <v>452.5</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1828,10 +1828,10 @@
         <v>1148</v>
       </c>
       <c r="C103">
-        <v>1023</v>
+        <v>1139</v>
       </c>
       <c r="D103">
-        <v>1085.5</v>
+        <v>1143.5</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1842,10 +1842,10 @@
         <v>3962</v>
       </c>
       <c r="C104">
-        <v>3933</v>
+        <v>3894</v>
       </c>
       <c r="D104">
-        <v>3947.5</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1856,10 +1856,10 @@
         <v>210</v>
       </c>
       <c r="C105">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="D105">
-        <v>222.5</v>
+        <v>210.5</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1870,10 +1870,10 @@
         <v>2479</v>
       </c>
       <c r="C106">
-        <v>2374</v>
+        <v>2486</v>
       </c>
       <c r="D106">
-        <v>2426.5</v>
+        <v>2482.5</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1884,10 +1884,10 @@
         <v>277</v>
       </c>
       <c r="C107">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="D107">
-        <v>259</v>
+        <v>277</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1898,10 +1898,10 @@
         <v>4262</v>
       </c>
       <c r="C108">
-        <v>4351</v>
+        <v>4377</v>
       </c>
       <c r="D108">
-        <v>4306.5</v>
+        <v>4319.5</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1912,10 +1912,10 @@
         <v>2525</v>
       </c>
       <c r="C109">
-        <v>2580</v>
+        <v>2665</v>
       </c>
       <c r="D109">
-        <v>2552.5</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1926,10 +1926,10 @@
         <v>78</v>
       </c>
       <c r="C110">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="D110">
-        <v>78.5</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1940,10 +1940,10 @@
         <v>43</v>
       </c>
       <c r="C111">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D111">
-        <v>42.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1954,10 +1954,10 @@
         <v>911</v>
       </c>
       <c r="C112">
-        <v>936</v>
+        <v>992</v>
       </c>
       <c r="D112">
-        <v>923.5</v>
+        <v>951.5</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1968,10 +1968,10 @@
         <v>1353</v>
       </c>
       <c r="C113">
-        <v>1381</v>
+        <v>1431</v>
       </c>
       <c r="D113">
-        <v>1367</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1982,10 +1982,10 @@
         <v>2289</v>
       </c>
       <c r="C114">
-        <v>2212</v>
+        <v>2193</v>
       </c>
       <c r="D114">
-        <v>2250.5</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1996,10 +1996,10 @@
         <v>3086</v>
       </c>
       <c r="C115">
-        <v>3072</v>
+        <v>3198</v>
       </c>
       <c r="D115">
-        <v>3079</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2010,10 +2010,10 @@
         <v>578</v>
       </c>
       <c r="C116">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="D116">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2024,10 +2024,10 @@
         <v>727</v>
       </c>
       <c r="C117">
-        <v>745</v>
+        <v>788</v>
       </c>
       <c r="D117">
-        <v>736</v>
+        <v>757.5</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2038,10 +2038,10 @@
         <v>1312</v>
       </c>
       <c r="C118">
-        <v>1592</v>
+        <v>1364</v>
       </c>
       <c r="D118">
-        <v>1452</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2052,10 +2052,10 @@
         <v>1161</v>
       </c>
       <c r="C119">
-        <v>1161</v>
+        <v>1262</v>
       </c>
       <c r="D119">
-        <v>1161</v>
+        <v>1211.5</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2066,10 +2066,10 @@
         <v>964</v>
       </c>
       <c r="C120">
-        <v>1004</v>
+        <v>1072</v>
       </c>
       <c r="D120">
-        <v>984</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2080,10 +2080,10 @@
         <v>27</v>
       </c>
       <c r="C121">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D121">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2094,10 +2094,10 @@
         <v>2262</v>
       </c>
       <c r="C122">
-        <v>2204</v>
+        <v>2171</v>
       </c>
       <c r="D122">
-        <v>2233</v>
+        <v>2216.5</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2108,10 +2108,10 @@
         <v>520</v>
       </c>
       <c r="C123">
-        <v>527</v>
+        <v>549</v>
       </c>
       <c r="D123">
-        <v>523.5</v>
+        <v>534.5</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2122,10 +2122,10 @@
         <v>168</v>
       </c>
       <c r="C124">
-        <v>5</v>
+        <v>209</v>
       </c>
       <c r="D124">
-        <v>86.5</v>
+        <v>188.5</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2136,10 +2136,10 @@
         <v>1647</v>
       </c>
       <c r="C125">
-        <v>1620</v>
+        <v>1677</v>
       </c>
       <c r="D125">
-        <v>1633.5</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2150,10 +2150,10 @@
         <v>8</v>
       </c>
       <c r="C126">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D126">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2164,10 +2164,10 @@
         <v>126</v>
       </c>
       <c r="C127">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D127">
-        <v>138</v>
+        <v>139.5</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2178,10 +2178,10 @@
         <v>1405</v>
       </c>
       <c r="C128">
-        <v>1430</v>
+        <v>1478</v>
       </c>
       <c r="D128">
-        <v>1417.5</v>
+        <v>1441.5</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2192,10 +2192,10 @@
         <v>1555</v>
       </c>
       <c r="C129">
-        <v>1554</v>
+        <v>1620</v>
       </c>
       <c r="D129">
-        <v>1554.5</v>
+        <v>1587.5</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2206,10 +2206,10 @@
         <v>1364</v>
       </c>
       <c r="C130">
-        <v>1443</v>
+        <v>1510</v>
       </c>
       <c r="D130">
-        <v>1403.5</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2220,10 +2220,10 @@
         <v>1685</v>
       </c>
       <c r="C131">
-        <v>1854</v>
+        <v>1813</v>
       </c>
       <c r="D131">
-        <v>1769.5</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2234,10 +2234,10 @@
         <v>2726</v>
       </c>
       <c r="C132">
-        <v>2736</v>
+        <v>2712</v>
       </c>
       <c r="D132">
-        <v>2731</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2248,10 +2248,10 @@
         <v>469</v>
       </c>
       <c r="C133">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="D133">
-        <v>472</v>
+        <v>482.5</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2262,10 +2262,10 @@
         <v>1566</v>
       </c>
       <c r="C134">
-        <v>1566</v>
+        <v>1690</v>
       </c>
       <c r="D134">
-        <v>1566</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2276,10 +2276,10 @@
         <v>1283</v>
       </c>
       <c r="C135">
-        <v>1322</v>
+        <v>1329</v>
       </c>
       <c r="D135">
-        <v>1302.5</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2290,10 +2290,10 @@
         <v>507</v>
       </c>
       <c r="C136">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="D136">
-        <v>513.5</v>
+        <v>517</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2304,10 +2304,10 @@
         <v>1781</v>
       </c>
       <c r="C137">
-        <v>1861</v>
+        <v>1876</v>
       </c>
       <c r="D137">
-        <v>1821</v>
+        <v>1828.5</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2318,10 +2318,10 @@
         <v>2057</v>
       </c>
       <c r="C138">
-        <v>2160</v>
+        <v>2165</v>
       </c>
       <c r="D138">
-        <v>2108.5</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2332,10 +2332,10 @@
         <v>1442</v>
       </c>
       <c r="C139">
-        <v>1475</v>
+        <v>1504</v>
       </c>
       <c r="D139">
-        <v>1458.5</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2346,10 +2346,10 @@
         <v>904</v>
       </c>
       <c r="C140">
-        <v>916</v>
+        <v>978</v>
       </c>
       <c r="D140">
-        <v>910</v>
+        <v>941</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2360,10 +2360,10 @@
         <v>1378</v>
       </c>
       <c r="C141">
-        <v>1401</v>
+        <v>1454</v>
       </c>
       <c r="D141">
-        <v>1389.5</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2374,10 +2374,10 @@
         <v>55</v>
       </c>
       <c r="C142">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D142">
-        <v>51.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2388,10 +2388,10 @@
         <v>577</v>
       </c>
       <c r="C143">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="D143">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2402,10 +2402,10 @@
         <v>1074</v>
       </c>
       <c r="C144">
-        <v>1021</v>
+        <v>1102</v>
       </c>
       <c r="D144">
-        <v>1047.5</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2416,10 +2416,10 @@
         <v>2091</v>
       </c>
       <c r="C145">
-        <v>2091</v>
+        <v>2056</v>
       </c>
       <c r="D145">
-        <v>2091</v>
+        <v>2073.5</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2430,10 +2430,10 @@
         <v>756</v>
       </c>
       <c r="C146">
-        <v>734</v>
+        <v>758</v>
       </c>
       <c r="D146">
-        <v>745</v>
+        <v>757</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2444,10 +2444,10 @@
         <v>439</v>
       </c>
       <c r="C147">
-        <v>458</v>
+        <v>511</v>
       </c>
       <c r="D147">
-        <v>448.5</v>
+        <v>475</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2458,10 +2458,10 @@
         <v>2515</v>
       </c>
       <c r="C148">
-        <v>2534</v>
+        <v>2549</v>
       </c>
       <c r="D148">
-        <v>2524.5</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2472,10 +2472,10 @@
         <v>62</v>
       </c>
       <c r="C149">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D149">
-        <v>63.5</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2500,10 +2500,10 @@
         <v>2324</v>
       </c>
       <c r="C151">
-        <v>2320</v>
+        <v>2323</v>
       </c>
       <c r="D151">
-        <v>2322</v>
+        <v>2323.5</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2514,10 +2514,10 @@
         <v>722</v>
       </c>
       <c r="C152">
-        <v>726</v>
+        <v>808</v>
       </c>
       <c r="D152">
-        <v>724</v>
+        <v>765</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2528,10 +2528,10 @@
         <v>2455</v>
       </c>
       <c r="C153">
-        <v>2404</v>
+        <v>2425</v>
       </c>
       <c r="D153">
-        <v>2429.5</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2542,10 +2542,10 @@
         <v>149</v>
       </c>
       <c r="C154">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="D154">
-        <v>148.5</v>
+        <v>158</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2556,10 +2556,10 @@
         <v>113</v>
       </c>
       <c r="C155">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="D155">
-        <v>111.5</v>
+        <v>138</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2570,10 +2570,10 @@
         <v>1710</v>
       </c>
       <c r="C156">
-        <v>1802</v>
+        <v>1864</v>
       </c>
       <c r="D156">
-        <v>1756</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2584,10 +2584,10 @@
         <v>89</v>
       </c>
       <c r="C157">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="D157">
-        <v>115</v>
+        <v>127.5</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2598,10 +2598,10 @@
         <v>693</v>
       </c>
       <c r="C158">
-        <v>685</v>
+        <v>724</v>
       </c>
       <c r="D158">
-        <v>689</v>
+        <v>708.5</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2612,10 +2612,10 @@
         <v>1444</v>
       </c>
       <c r="C159">
-        <v>1473</v>
+        <v>1513</v>
       </c>
       <c r="D159">
-        <v>1458.5</v>
+        <v>1478.5</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2626,10 +2626,10 @@
         <v>1553</v>
       </c>
       <c r="C160">
-        <v>1559</v>
+        <v>1661</v>
       </c>
       <c r="D160">
-        <v>1556</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2640,10 +2640,10 @@
         <v>144</v>
       </c>
       <c r="C161">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="D161">
-        <v>149.5</v>
+        <v>160.5</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2654,10 +2654,10 @@
         <v>1026</v>
       </c>
       <c r="C162">
-        <v>1058</v>
+        <v>1010</v>
       </c>
       <c r="D162">
-        <v>1042</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2668,10 +2668,10 @@
         <v>448</v>
       </c>
       <c r="C163">
-        <v>461</v>
+        <v>495</v>
       </c>
       <c r="D163">
-        <v>454.5</v>
+        <v>471.5</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2682,10 +2682,10 @@
         <v>1763</v>
       </c>
       <c r="C164">
-        <v>1962</v>
+        <v>1810</v>
       </c>
       <c r="D164">
-        <v>1862.5</v>
+        <v>1786.5</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2696,10 +2696,10 @@
         <v>95</v>
       </c>
       <c r="C165">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D165">
-        <v>82.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2710,10 +2710,10 @@
         <v>200</v>
       </c>
       <c r="C166">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D166">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2724,10 +2724,10 @@
         <v>1454</v>
       </c>
       <c r="C167">
-        <v>1498</v>
+        <v>1556</v>
       </c>
       <c r="D167">
-        <v>1476</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2738,10 +2738,10 @@
         <v>46</v>
       </c>
       <c r="C168">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D168">
-        <v>40</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2752,10 +2752,10 @@
         <v>147</v>
       </c>
       <c r="C169">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="D169">
-        <v>80.5</v>
+        <v>159.5</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2766,10 +2766,10 @@
         <v>64</v>
       </c>
       <c r="C170">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="D170">
-        <v>83.5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2780,10 +2780,10 @@
         <v>1495</v>
       </c>
       <c r="C171">
-        <v>1496</v>
+        <v>1531</v>
       </c>
       <c r="D171">
-        <v>1495.5</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2794,10 +2794,10 @@
         <v>725</v>
       </c>
       <c r="C172">
-        <v>730</v>
+        <v>753</v>
       </c>
       <c r="D172">
-        <v>727.5</v>
+        <v>739</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2808,10 +2808,10 @@
         <v>53</v>
       </c>
       <c r="C173">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D173">
-        <v>49.5</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2822,10 +2822,10 @@
         <v>97</v>
       </c>
       <c r="C174">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="D174">
-        <v>109.5</v>
+        <v>130.5</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2836,10 +2836,10 @@
         <v>58</v>
       </c>
       <c r="C175">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="D175">
-        <v>57.5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2864,10 +2864,10 @@
         <v>2375</v>
       </c>
       <c r="C177">
-        <v>2555</v>
+        <v>2558</v>
       </c>
       <c r="D177">
-        <v>2465</v>
+        <v>2466.5</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2878,10 +2878,10 @@
         <v>294</v>
       </c>
       <c r="C178">
-        <v>291</v>
+        <v>357</v>
       </c>
       <c r="D178">
-        <v>292.5</v>
+        <v>325.5</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2892,10 +2892,10 @@
         <v>36</v>
       </c>
       <c r="C179">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D179">
-        <v>32</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2906,10 +2906,10 @@
         <v>377</v>
       </c>
       <c r="C180">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="D180">
-        <v>374</v>
+        <v>368.5</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2920,10 +2920,10 @@
         <v>119</v>
       </c>
       <c r="C181">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="D181">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2934,10 +2934,10 @@
         <v>2658</v>
       </c>
       <c r="C182">
-        <v>2606</v>
+        <v>2660</v>
       </c>
       <c r="D182">
-        <v>2632</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2948,10 +2948,10 @@
         <v>369</v>
       </c>
       <c r="C183">
-        <v>402</v>
+        <v>33</v>
       </c>
       <c r="D183">
-        <v>385.5</v>
+        <v>201</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2962,10 +2962,10 @@
         <v>354</v>
       </c>
       <c r="C184">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="D184">
-        <v>366.5</v>
+        <v>374</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2976,10 +2976,10 @@
         <v>403</v>
       </c>
       <c r="C185">
-        <v>365</v>
+        <v>428</v>
       </c>
       <c r="D185">
-        <v>384</v>
+        <v>415.5</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2990,10 +2990,10 @@
         <v>1579</v>
       </c>
       <c r="C186">
-        <v>1576</v>
+        <v>1590</v>
       </c>
       <c r="D186">
-        <v>1577.5</v>
+        <v>1584.5</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3004,10 +3004,10 @@
         <v>295</v>
       </c>
       <c r="C187">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="D187">
-        <v>290</v>
+        <v>309</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3018,10 +3018,10 @@
         <v>1892</v>
       </c>
       <c r="C188">
-        <v>1918</v>
+        <v>1923</v>
       </c>
       <c r="D188">
-        <v>1905</v>
+        <v>1907.5</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3032,10 +3032,10 @@
         <v>2564</v>
       </c>
       <c r="C189">
-        <v>2536</v>
+        <v>2581</v>
       </c>
       <c r="D189">
-        <v>2550</v>
+        <v>2572.5</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3046,10 +3046,10 @@
         <v>564</v>
       </c>
       <c r="C190">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="D190">
-        <v>520.5</v>
+        <v>546.5</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3060,10 +3060,10 @@
         <v>1603</v>
       </c>
       <c r="C191">
-        <v>1587</v>
+        <v>1400</v>
       </c>
       <c r="D191">
-        <v>1595</v>
+        <v>1501.5</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3074,10 +3074,10 @@
         <v>344</v>
       </c>
       <c r="C192">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="D192">
-        <v>375.5</v>
+        <v>386.5</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3088,10 +3088,10 @@
         <v>1359</v>
       </c>
       <c r="C193">
-        <v>1386</v>
+        <v>1440</v>
       </c>
       <c r="D193">
-        <v>1372.5</v>
+        <v>1399.5</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3102,10 +3102,10 @@
         <v>68</v>
       </c>
       <c r="C194">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D194">
-        <v>39.5</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3116,10 +3116,10 @@
         <v>1593</v>
       </c>
       <c r="C195">
-        <v>1580</v>
+        <v>1637</v>
       </c>
       <c r="D195">
-        <v>1586.5</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3130,10 +3130,10 @@
         <v>1280</v>
       </c>
       <c r="C196">
-        <v>1286</v>
+        <v>1245</v>
       </c>
       <c r="D196">
-        <v>1283</v>
+        <v>1262.5</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3144,10 +3144,10 @@
         <v>1109</v>
       </c>
       <c r="C197">
-        <v>1164</v>
+        <v>1035</v>
       </c>
       <c r="D197">
-        <v>1136.5</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3158,10 +3158,10 @@
         <v>1309</v>
       </c>
       <c r="C198">
-        <v>1269</v>
+        <v>1359</v>
       </c>
       <c r="D198">
-        <v>1289</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3172,10 +3172,10 @@
         <v>110</v>
       </c>
       <c r="C199">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="D199">
-        <v>120</v>
+        <v>132.5</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3186,10 +3186,10 @@
         <v>2585</v>
       </c>
       <c r="C200">
-        <v>2522</v>
+        <v>2556</v>
       </c>
       <c r="D200">
-        <v>2553.5</v>
+        <v>2570.5</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3200,10 +3200,10 @@
         <v>1852</v>
       </c>
       <c r="C201">
-        <v>1696</v>
+        <v>1760</v>
       </c>
       <c r="D201">
-        <v>1774</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3214,10 +3214,10 @@
         <v>1491</v>
       </c>
       <c r="C202">
-        <v>1519</v>
+        <v>1543</v>
       </c>
       <c r="D202">
-        <v>1505</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3228,10 +3228,10 @@
         <v>2254</v>
       </c>
       <c r="C203">
-        <v>2213</v>
+        <v>2240</v>
       </c>
       <c r="D203">
-        <v>2233.5</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3242,10 +3242,10 @@
         <v>598</v>
       </c>
       <c r="C204">
-        <v>651</v>
+        <v>631</v>
       </c>
       <c r="D204">
-        <v>624.5</v>
+        <v>614.5</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3256,10 +3256,10 @@
         <v>1934</v>
       </c>
       <c r="C205">
-        <v>1984</v>
+        <v>2020</v>
       </c>
       <c r="D205">
-        <v>1959</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3270,10 +3270,10 @@
         <v>1277</v>
       </c>
       <c r="C206">
-        <v>1300</v>
+        <v>1308</v>
       </c>
       <c r="D206">
-        <v>1288.5</v>
+        <v>1292.5</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3284,10 +3284,10 @@
         <v>223</v>
       </c>
       <c r="C207">
-        <v>226</v>
+        <v>273</v>
       </c>
       <c r="D207">
-        <v>224.5</v>
+        <v>248</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3298,10 +3298,10 @@
         <v>713</v>
       </c>
       <c r="C208">
-        <v>692</v>
+        <v>718</v>
       </c>
       <c r="D208">
-        <v>702.5</v>
+        <v>715.5</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3312,10 +3312,10 @@
         <v>580</v>
       </c>
       <c r="C209">
-        <v>590</v>
+        <v>553</v>
       </c>
       <c r="D209">
-        <v>585</v>
+        <v>566.5</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3326,10 +3326,10 @@
         <v>165</v>
       </c>
       <c r="C210">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="D210">
-        <v>179.5</v>
+        <v>196</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3340,10 +3340,10 @@
         <v>2337</v>
       </c>
       <c r="C211">
-        <v>2348</v>
+        <v>15</v>
       </c>
       <c r="D211">
-        <v>2342.5</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3354,10 +3354,10 @@
         <v>443</v>
       </c>
       <c r="C212">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="D212">
-        <v>459.5</v>
+        <v>468.5</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3368,10 +3368,10 @@
         <v>1661</v>
       </c>
       <c r="C213">
-        <v>1655</v>
+        <v>1707</v>
       </c>
       <c r="D213">
-        <v>1658</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3382,10 +3382,10 @@
         <v>184</v>
       </c>
       <c r="C214">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c r="D214">
-        <v>171</v>
+        <v>207</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3396,10 +3396,10 @@
         <v>666</v>
       </c>
       <c r="C215">
-        <v>649</v>
+        <v>720</v>
       </c>
       <c r="D215">
-        <v>657.5</v>
+        <v>693</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3410,10 +3410,10 @@
         <v>217</v>
       </c>
       <c r="C216">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="D216">
-        <v>214</v>
+        <v>234</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3424,10 +3424,10 @@
         <v>127</v>
       </c>
       <c r="C217">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="D217">
-        <v>131</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3438,10 +3438,10 @@
         <v>197</v>
       </c>
       <c r="C218">
-        <v>223</v>
+        <v>339</v>
       </c>
       <c r="D218">
-        <v>210</v>
+        <v>268</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3466,10 +3466,10 @@
         <v>1898</v>
       </c>
       <c r="C220">
-        <v>1909</v>
+        <v>1899</v>
       </c>
       <c r="D220">
-        <v>1903.5</v>
+        <v>1898.5</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3480,10 +3480,10 @@
         <v>1943</v>
       </c>
       <c r="C221">
-        <v>1959</v>
+        <v>1930</v>
       </c>
       <c r="D221">
-        <v>1951</v>
+        <v>1936.5</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3494,10 +3494,10 @@
         <v>30</v>
       </c>
       <c r="C222">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D222">
-        <v>26.5</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3508,10 +3508,10 @@
         <v>790</v>
       </c>
       <c r="C223">
-        <v>768</v>
+        <v>860</v>
       </c>
       <c r="D223">
-        <v>779</v>
+        <v>825</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3522,10 +3522,10 @@
         <v>757</v>
       </c>
       <c r="C224">
-        <v>750</v>
+        <v>772</v>
       </c>
       <c r="D224">
-        <v>753.5</v>
+        <v>764.5</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3536,10 +3536,10 @@
         <v>1902</v>
       </c>
       <c r="C225">
-        <v>1917</v>
+        <v>1906</v>
       </c>
       <c r="D225">
-        <v>1909.5</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3550,10 +3550,10 @@
         <v>1610</v>
       </c>
       <c r="C226">
-        <v>1564</v>
+        <v>1643</v>
       </c>
       <c r="D226">
-        <v>1587</v>
+        <v>1626.5</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3564,10 +3564,10 @@
         <v>2294</v>
       </c>
       <c r="C227">
-        <v>2262</v>
+        <v>2421</v>
       </c>
       <c r="D227">
-        <v>2278</v>
+        <v>2357.5</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3578,10 +3578,10 @@
         <v>41</v>
       </c>
       <c r="C228">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D228">
-        <v>42.5</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3592,10 +3592,10 @@
         <v>276</v>
       </c>
       <c r="C229">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="D229">
-        <v>269.5</v>
+        <v>276</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3606,10 +3606,10 @@
         <v>20</v>
       </c>
       <c r="C230">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D230">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3620,10 +3620,10 @@
         <v>832</v>
       </c>
       <c r="C231">
-        <v>852</v>
+        <v>908</v>
       </c>
       <c r="D231">
-        <v>842</v>
+        <v>870</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3634,10 +3634,10 @@
         <v>907</v>
       </c>
       <c r="C232">
-        <v>975</v>
+        <v>993</v>
       </c>
       <c r="D232">
-        <v>941</v>
+        <v>950</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3648,10 +3648,10 @@
         <v>1401</v>
       </c>
       <c r="C233">
-        <v>1422</v>
+        <v>1471</v>
       </c>
       <c r="D233">
-        <v>1411.5</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3662,10 +3662,10 @@
         <v>1093</v>
       </c>
       <c r="C234">
-        <v>1045</v>
+        <v>1126</v>
       </c>
       <c r="D234">
-        <v>1069</v>
+        <v>1109.5</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3676,10 +3676,10 @@
         <v>1302</v>
       </c>
       <c r="C235">
-        <v>1489</v>
+        <v>1565</v>
       </c>
       <c r="D235">
-        <v>1395.5</v>
+        <v>1433.5</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3690,10 +3690,10 @@
         <v>1075</v>
       </c>
       <c r="C236">
-        <v>1079</v>
+        <v>1123</v>
       </c>
       <c r="D236">
-        <v>1077</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3704,10 +3704,10 @@
         <v>2255</v>
       </c>
       <c r="C237">
-        <v>2197</v>
+        <v>2250</v>
       </c>
       <c r="D237">
-        <v>2226</v>
+        <v>2252.5</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3718,10 +3718,10 @@
         <v>39</v>
       </c>
       <c r="C238">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D238">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3732,10 +3732,10 @@
         <v>1652</v>
       </c>
       <c r="C239">
-        <v>1619</v>
+        <v>1719</v>
       </c>
       <c r="D239">
-        <v>1635.5</v>
+        <v>1685.5</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3746,10 +3746,10 @@
         <v>80</v>
       </c>
       <c r="C240">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="D240">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3760,10 +3760,10 @@
         <v>856</v>
       </c>
       <c r="C241">
-        <v>913</v>
+        <v>963</v>
       </c>
       <c r="D241">
-        <v>884.5</v>
+        <v>909.5</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3774,10 +3774,10 @@
         <v>71</v>
       </c>
       <c r="C242">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="D242">
-        <v>78.5</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3788,10 +3788,10 @@
         <v>1769</v>
       </c>
       <c r="C243">
-        <v>1811</v>
+        <v>1759</v>
       </c>
       <c r="D243">
-        <v>1790</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3802,10 +3802,10 @@
         <v>1238</v>
       </c>
       <c r="C244">
-        <v>1369</v>
+        <v>1390</v>
       </c>
       <c r="D244">
-        <v>1303.5</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3816,10 +3816,10 @@
         <v>1416</v>
       </c>
       <c r="C245">
-        <v>1440</v>
+        <v>1502</v>
       </c>
       <c r="D245">
-        <v>1428</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3830,10 +3830,10 @@
         <v>341</v>
       </c>
       <c r="C246">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D246">
-        <v>382.5</v>
+        <v>381</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3844,10 +3844,10 @@
         <v>820</v>
       </c>
       <c r="C247">
-        <v>776</v>
+        <v>834</v>
       </c>
       <c r="D247">
-        <v>798</v>
+        <v>827</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3858,10 +3858,10 @@
         <v>96</v>
       </c>
       <c r="C248">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="D248">
-        <v>102</v>
+        <v>129</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3872,10 +3872,10 @@
         <v>134</v>
       </c>
       <c r="C249">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="D249">
-        <v>151.5</v>
+        <v>160</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3886,10 +3886,10 @@
         <v>1298</v>
       </c>
       <c r="C250">
-        <v>1230</v>
+        <v>1334</v>
       </c>
       <c r="D250">
-        <v>1264</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3900,10 +3900,10 @@
         <v>1376</v>
       </c>
       <c r="C251">
-        <v>1397</v>
+        <v>1452</v>
       </c>
       <c r="D251">
-        <v>1386.5</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3914,10 +3914,10 @@
         <v>91</v>
       </c>
       <c r="C252">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D252">
-        <v>90.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3928,10 +3928,10 @@
         <v>597</v>
       </c>
       <c r="C253">
-        <v>572</v>
+        <v>604</v>
       </c>
       <c r="D253">
-        <v>584.5</v>
+        <v>600.5</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3942,10 +3942,10 @@
         <v>1047</v>
       </c>
       <c r="C254">
-        <v>1124</v>
+        <v>1174</v>
       </c>
       <c r="D254">
-        <v>1085.5</v>
+        <v>1110.5</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3956,10 +3956,10 @@
         <v>76</v>
       </c>
       <c r="C255">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="D255">
-        <v>76.5</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3970,10 +3970,10 @@
         <v>47</v>
       </c>
       <c r="C256">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D256">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -3984,10 +3984,10 @@
         <v>888</v>
       </c>
       <c r="C257">
-        <v>937</v>
+        <v>826</v>
       </c>
       <c r="D257">
-        <v>912.5</v>
+        <v>857</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -3998,10 +3998,10 @@
         <v>758</v>
       </c>
       <c r="C258">
-        <v>751</v>
+        <v>771</v>
       </c>
       <c r="D258">
-        <v>754.5</v>
+        <v>764.5</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4012,10 +4012,10 @@
         <v>31</v>
       </c>
       <c r="C259">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D259">
-        <v>27.5</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4026,10 +4026,10 @@
         <v>370</v>
       </c>
       <c r="C260">
-        <v>333</v>
+        <v>387</v>
       </c>
       <c r="D260">
-        <v>351.5</v>
+        <v>378.5</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4040,10 +4040,10 @@
         <v>1050</v>
       </c>
       <c r="C261">
-        <v>953</v>
+        <v>1068</v>
       </c>
       <c r="D261">
-        <v>1001.5</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4054,10 +4054,10 @@
         <v>79</v>
       </c>
       <c r="C262">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D262">
-        <v>86.5</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4068,10 +4068,10 @@
         <v>1017</v>
       </c>
       <c r="C263">
-        <v>1009</v>
+        <v>1066</v>
       </c>
       <c r="D263">
-        <v>1013</v>
+        <v>1041.5</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4082,10 +4082,10 @@
         <v>527</v>
       </c>
       <c r="C264">
-        <v>536</v>
+        <v>576</v>
       </c>
       <c r="D264">
-        <v>531.5</v>
+        <v>551.5</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4096,10 +4096,10 @@
         <v>477</v>
       </c>
       <c r="C265">
-        <v>415</v>
+        <v>541</v>
       </c>
       <c r="D265">
-        <v>446</v>
+        <v>509</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4110,10 +4110,10 @@
         <v>82</v>
       </c>
       <c r="C266">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="D266">
-        <v>86.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4124,10 +4124,10 @@
         <v>7</v>
       </c>
       <c r="C267">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="D267">
-        <v>32.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4138,10 +4138,10 @@
         <v>2072</v>
       </c>
       <c r="C268">
-        <v>2111</v>
+        <v>2073</v>
       </c>
       <c r="D268">
-        <v>2091.5</v>
+        <v>2072.5</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4152,10 +4152,10 @@
         <v>640</v>
       </c>
       <c r="C269">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="D269">
-        <v>675.5</v>
+        <v>672.5</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4166,10 +4166,10 @@
         <v>1392</v>
       </c>
       <c r="C270">
-        <v>1415</v>
+        <v>1466</v>
       </c>
       <c r="D270">
-        <v>1403.5</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4180,10 +4180,10 @@
         <v>1445</v>
       </c>
       <c r="C271">
-        <v>1469</v>
+        <v>1515</v>
       </c>
       <c r="D271">
-        <v>1457</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4194,10 +4194,10 @@
         <v>589</v>
       </c>
       <c r="C272">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="D272">
-        <v>578</v>
+        <v>586.5</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4208,10 +4208,10 @@
         <v>324</v>
       </c>
       <c r="C273">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="D273">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4222,10 +4222,10 @@
         <v>692</v>
       </c>
       <c r="C274">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="D274">
-        <v>681</v>
+        <v>692.5</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4236,10 +4236,10 @@
         <v>2608</v>
       </c>
       <c r="C275">
-        <v>2621</v>
+        <v>2605</v>
       </c>
       <c r="D275">
-        <v>2614.5</v>
+        <v>2606.5</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4250,10 +4250,10 @@
         <v>941</v>
       </c>
       <c r="C276">
-        <v>942</v>
+        <v>1040</v>
       </c>
       <c r="D276">
-        <v>941.5</v>
+        <v>990.5</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4264,10 +4264,10 @@
         <v>74</v>
       </c>
       <c r="C277">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="D277">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4278,10 +4278,10 @@
         <v>1674</v>
       </c>
       <c r="C278">
-        <v>1350</v>
+        <v>1407</v>
       </c>
       <c r="D278">
-        <v>1512</v>
+        <v>1540.5</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4292,10 +4292,10 @@
         <v>298</v>
       </c>
       <c r="C279">
-        <v>306</v>
+        <v>368</v>
       </c>
       <c r="D279">
-        <v>302</v>
+        <v>333</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4306,10 +4306,10 @@
         <v>509</v>
       </c>
       <c r="C280">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="D280">
-        <v>504</v>
+        <v>509.5</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4320,10 +4320,10 @@
         <v>1397</v>
       </c>
       <c r="C281">
-        <v>1423</v>
+        <v>1467</v>
       </c>
       <c r="D281">
-        <v>1410</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4334,10 +4334,10 @@
         <v>446</v>
       </c>
       <c r="C282">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="D282">
-        <v>444.5</v>
+        <v>459.5</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4348,10 +4348,10 @@
         <v>142</v>
       </c>
       <c r="C283">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="D283">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4362,10 +4362,10 @@
         <v>1311</v>
       </c>
       <c r="C284">
-        <v>1236</v>
+        <v>1299</v>
       </c>
       <c r="D284">
-        <v>1273.5</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4376,10 +4376,10 @@
         <v>4983</v>
       </c>
       <c r="C285">
-        <v>5039</v>
+        <v>5008</v>
       </c>
       <c r="D285">
-        <v>5011</v>
+        <v>4995.5</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4390,10 +4390,10 @@
         <v>585</v>
       </c>
       <c r="C286">
-        <v>631</v>
+        <v>655</v>
       </c>
       <c r="D286">
-        <v>608</v>
+        <v>620</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4404,10 +4404,10 @@
         <v>1530</v>
       </c>
       <c r="C287">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="D287">
-        <v>1442</v>
+        <v>1439.5</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4418,10 +4418,10 @@
         <v>42</v>
       </c>
       <c r="C288">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D288">
-        <v>41.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4432,10 +4432,10 @@
         <v>306</v>
       </c>
       <c r="C289">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="D289">
-        <v>299</v>
+        <v>316.5</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4446,10 +4446,10 @@
         <v>1417</v>
       </c>
       <c r="C290">
-        <v>1441</v>
+        <v>1503</v>
       </c>
       <c r="D290">
-        <v>1429</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4460,10 +4460,10 @@
         <v>1178</v>
       </c>
       <c r="C291">
-        <v>1190</v>
+        <v>1176</v>
       </c>
       <c r="D291">
-        <v>1184</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4474,10 +4474,10 @@
         <v>108</v>
       </c>
       <c r="C292">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="D292">
-        <v>104.5</v>
+        <v>125.5</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4488,10 +4488,10 @@
         <v>1165</v>
       </c>
       <c r="C293">
-        <v>1287</v>
+        <v>1376</v>
       </c>
       <c r="D293">
-        <v>1226</v>
+        <v>1270.5</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4502,10 +4502,10 @@
         <v>366</v>
       </c>
       <c r="C294">
-        <v>340</v>
+        <v>32</v>
       </c>
       <c r="D294">
-        <v>353</v>
+        <v>199</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4516,10 +4516,10 @@
         <v>536</v>
       </c>
       <c r="C295">
-        <v>614</v>
+        <v>581</v>
       </c>
       <c r="D295">
-        <v>575</v>
+        <v>558.5</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4530,10 +4530,10 @@
         <v>3581</v>
       </c>
       <c r="C296">
-        <v>3406</v>
+        <v>3196</v>
       </c>
       <c r="D296">
-        <v>3493.5</v>
+        <v>3388.5</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4544,10 +4544,10 @@
         <v>652</v>
       </c>
       <c r="C297">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="D297">
-        <v>687</v>
+        <v>679.5</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4558,10 +4558,10 @@
         <v>172</v>
       </c>
       <c r="C298">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="D298">
-        <v>154</v>
+        <v>182</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4572,10 +4572,10 @@
         <v>32</v>
       </c>
       <c r="C299">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D299">
-        <v>29</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4586,10 +4586,10 @@
         <v>461</v>
       </c>
       <c r="C300">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="D300">
-        <v>473.5</v>
+        <v>457.5</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4600,10 +4600,10 @@
         <v>480</v>
       </c>
       <c r="C301">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="D301">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4614,10 +4614,10 @@
         <v>21</v>
       </c>
       <c r="C302">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="D302">
-        <v>42.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4628,10 +4628,10 @@
         <v>1299</v>
       </c>
       <c r="C303">
-        <v>1339</v>
+        <v>1382</v>
       </c>
       <c r="D303">
-        <v>1319</v>
+        <v>1340.5</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4642,10 +4642,10 @@
         <v>1628</v>
       </c>
       <c r="C304">
-        <v>1648</v>
+        <v>1627</v>
       </c>
       <c r="D304">
-        <v>1638</v>
+        <v>1627.5</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4656,10 +4656,10 @@
         <v>1630</v>
       </c>
       <c r="C305">
-        <v>1616</v>
+        <v>1696</v>
       </c>
       <c r="D305">
-        <v>1623</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4670,10 +4670,10 @@
         <v>647</v>
       </c>
       <c r="C306">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="D306">
-        <v>650.5</v>
+        <v>647.5</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4684,10 +4684,10 @@
         <v>1412</v>
       </c>
       <c r="C307">
-        <v>1438</v>
+        <v>1495</v>
       </c>
       <c r="D307">
-        <v>1425</v>
+        <v>1453.5</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4698,10 +4698,10 @@
         <v>1242</v>
       </c>
       <c r="C308">
-        <v>1302</v>
+        <v>1497</v>
       </c>
       <c r="D308">
-        <v>1272</v>
+        <v>1369.5</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4712,10 +4712,10 @@
         <v>658</v>
       </c>
       <c r="C309">
-        <v>694</v>
+        <v>731</v>
       </c>
       <c r="D309">
-        <v>676</v>
+        <v>694.5</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4726,10 +4726,10 @@
         <v>1843</v>
       </c>
       <c r="C310">
-        <v>1910</v>
+        <v>1786</v>
       </c>
       <c r="D310">
-        <v>1876.5</v>
+        <v>1814.5</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4740,10 +4740,10 @@
         <v>187</v>
       </c>
       <c r="C311">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="D311">
-        <v>189</v>
+        <v>217</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4754,10 +4754,10 @@
         <v>396</v>
       </c>
       <c r="C312">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="D312">
-        <v>397</v>
+        <v>373</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4768,10 +4768,10 @@
         <v>1815</v>
       </c>
       <c r="C313">
-        <v>1967</v>
+        <v>2039</v>
       </c>
       <c r="D313">
-        <v>1891</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4782,10 +4782,10 @@
         <v>2737</v>
       </c>
       <c r="C314">
-        <v>2861</v>
+        <v>2748</v>
       </c>
       <c r="D314">
-        <v>2799</v>
+        <v>2742.5</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -4796,10 +4796,10 @@
         <v>130</v>
       </c>
       <c r="C315">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="D315">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -4810,10 +4810,10 @@
         <v>167</v>
       </c>
       <c r="C316">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="D316">
-        <v>177.5</v>
+        <v>208</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -4824,10 +4824,10 @@
         <v>3611</v>
       </c>
       <c r="C317">
-        <v>3623</v>
+        <v>3622</v>
       </c>
       <c r="D317">
-        <v>3617</v>
+        <v>3616.5</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -4838,10 +4838,10 @@
         <v>1563</v>
       </c>
       <c r="C318">
-        <v>1565</v>
+        <v>1639</v>
       </c>
       <c r="D318">
-        <v>1564</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4852,10 +4852,10 @@
         <v>1825</v>
       </c>
       <c r="C319">
-        <v>1237</v>
+        <v>1781</v>
       </c>
       <c r="D319">
-        <v>1531</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4866,10 +4866,10 @@
         <v>938</v>
       </c>
       <c r="C320">
-        <v>895</v>
+        <v>876</v>
       </c>
       <c r="D320">
-        <v>916.5</v>
+        <v>907</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -4880,10 +4880,10 @@
         <v>196</v>
       </c>
       <c r="C321">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="D321">
-        <v>204</v>
+        <v>192.5</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -4894,10 +4894,10 @@
         <v>73</v>
       </c>
       <c r="C322">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D322">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -4908,10 +4908,10 @@
         <v>430</v>
       </c>
       <c r="C323">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D323">
-        <v>428.5</v>
+        <v>430</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -4922,10 +4922,10 @@
         <v>365</v>
       </c>
       <c r="C324">
-        <v>339</v>
+        <v>31</v>
       </c>
       <c r="D324">
-        <v>352</v>
+        <v>198</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -4936,10 +4936,10 @@
         <v>3048</v>
       </c>
       <c r="C325">
-        <v>3074</v>
+        <v>3096</v>
       </c>
       <c r="D325">
-        <v>3061</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -4950,10 +4950,10 @@
         <v>1149</v>
       </c>
       <c r="C326">
-        <v>1173</v>
+        <v>1073</v>
       </c>
       <c r="D326">
-        <v>1161</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -4964,10 +4964,10 @@
         <v>1419</v>
       </c>
       <c r="C327">
-        <v>1437</v>
+        <v>1492</v>
       </c>
       <c r="D327">
-        <v>1428</v>
+        <v>1455.5</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -4978,10 +4978,10 @@
         <v>2204</v>
       </c>
       <c r="C328">
-        <v>2437</v>
+        <v>2443</v>
       </c>
       <c r="D328">
-        <v>2320.5</v>
+        <v>2323.5</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -4992,10 +4992,10 @@
         <v>349</v>
       </c>
       <c r="C329">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="D329">
-        <v>351.5</v>
+        <v>361</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -5006,10 +5006,10 @@
         <v>437</v>
       </c>
       <c r="C330">
-        <v>6</v>
+        <v>514</v>
       </c>
       <c r="D330">
-        <v>221.5</v>
+        <v>475.5</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -5020,10 +5020,10 @@
         <v>2536</v>
       </c>
       <c r="C331">
-        <v>2719</v>
+        <v>2723</v>
       </c>
       <c r="D331">
-        <v>2627.5</v>
+        <v>2629.5</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5034,10 +5034,10 @@
         <v>1508</v>
       </c>
       <c r="C332">
-        <v>1526</v>
+        <v>1592</v>
       </c>
       <c r="D332">
-        <v>1517</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5048,10 +5048,10 @@
         <v>2677</v>
       </c>
       <c r="C333">
-        <v>2698</v>
+        <v>2854</v>
       </c>
       <c r="D333">
-        <v>2687.5</v>
+        <v>2765.5</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5062,10 +5062,10 @@
         <v>271</v>
       </c>
       <c r="C334">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="D334">
-        <v>262</v>
+        <v>267.5</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5076,10 +5076,10 @@
         <v>2946</v>
       </c>
       <c r="C335">
-        <v>3092</v>
+        <v>3018</v>
       </c>
       <c r="D335">
-        <v>3019</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5090,10 +5090,10 @@
         <v>105</v>
       </c>
       <c r="C336">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="D336">
-        <v>108</v>
+        <v>133</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5104,10 +5104,10 @@
         <v>14</v>
       </c>
       <c r="C337">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D337">
-        <v>34.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5118,10 +5118,10 @@
         <v>139</v>
       </c>
       <c r="C338">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="D338">
-        <v>145.5</v>
+        <v>158.5</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5132,10 +5132,10 @@
         <v>1916</v>
       </c>
       <c r="C339">
-        <v>2086</v>
+        <v>2057</v>
       </c>
       <c r="D339">
-        <v>2001</v>
+        <v>1986.5</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5146,10 +5146,10 @@
         <v>2504</v>
       </c>
       <c r="C340">
-        <v>2674</v>
+        <v>2620</v>
       </c>
       <c r="D340">
-        <v>2589</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5160,10 +5160,10 @@
         <v>272</v>
       </c>
       <c r="C341">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="D341">
-        <v>270.5</v>
+        <v>280</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5174,10 +5174,10 @@
         <v>540</v>
       </c>
       <c r="C342">
-        <v>568</v>
+        <v>595</v>
       </c>
       <c r="D342">
-        <v>554</v>
+        <v>567.5</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5188,10 +5188,10 @@
         <v>624</v>
       </c>
       <c r="C343">
-        <v>790</v>
+        <v>815</v>
       </c>
       <c r="D343">
-        <v>707</v>
+        <v>719.5</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5202,10 +5202,10 @@
         <v>239</v>
       </c>
       <c r="C344">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="D344">
-        <v>270.5</v>
+        <v>284</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5216,10 +5216,10 @@
         <v>29</v>
       </c>
       <c r="C345">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D345">
-        <v>25.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5230,10 +5230,10 @@
         <v>189</v>
       </c>
       <c r="C346">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="D346">
-        <v>180</v>
+        <v>199.5</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5244,10 +5244,10 @@
         <v>1481</v>
       </c>
       <c r="C347">
-        <v>1543</v>
+        <v>1568</v>
       </c>
       <c r="D347">
-        <v>1512</v>
+        <v>1524.5</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5258,10 +5258,10 @@
         <v>424</v>
       </c>
       <c r="C348">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="D348">
-        <v>429.5</v>
+        <v>441</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5272,10 +5272,10 @@
         <v>2725</v>
       </c>
       <c r="C349">
-        <v>2563</v>
+        <v>2613</v>
       </c>
       <c r="D349">
-        <v>2644</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5286,10 +5286,10 @@
         <v>1954</v>
       </c>
       <c r="C350">
-        <v>1858</v>
+        <v>1889</v>
       </c>
       <c r="D350">
-        <v>1906</v>
+        <v>1921.5</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5300,10 +5300,10 @@
         <v>1408</v>
       </c>
       <c r="C351">
-        <v>1488</v>
+        <v>1564</v>
       </c>
       <c r="D351">
-        <v>1448</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5314,10 +5314,10 @@
         <v>44</v>
       </c>
       <c r="C352">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D352">
-        <v>45.5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5328,10 +5328,10 @@
         <v>100</v>
       </c>
       <c r="C353">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D353">
-        <v>109.5</v>
+        <v>115</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5342,10 +5342,10 @@
         <v>5922</v>
       </c>
       <c r="C354">
-        <v>5941</v>
+        <v>5970</v>
       </c>
       <c r="D354">
-        <v>5931.5</v>
+        <v>5946</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5356,10 +5356,10 @@
         <v>2818</v>
       </c>
       <c r="C355">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="D355">
-        <v>2840</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5370,10 +5370,10 @@
         <v>2266</v>
       </c>
       <c r="C356">
-        <v>2224</v>
+        <v>2236</v>
       </c>
       <c r="D356">
-        <v>2245</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5384,10 +5384,10 @@
         <v>1978</v>
       </c>
       <c r="C357">
-        <v>2051</v>
+        <v>2083</v>
       </c>
       <c r="D357">
-        <v>2014.5</v>
+        <v>2030.5</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5398,10 +5398,10 @@
         <v>1</v>
       </c>
       <c r="C358">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="D358">
-        <v>28.5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5412,10 +5412,10 @@
         <v>136</v>
       </c>
       <c r="C359">
-        <v>185</v>
+        <v>228</v>
       </c>
       <c r="D359">
-        <v>160.5</v>
+        <v>182</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5426,10 +5426,10 @@
         <v>419</v>
       </c>
       <c r="C360">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="D360">
-        <v>424.5</v>
+        <v>437.5</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5440,10 +5440,10 @@
         <v>484</v>
       </c>
       <c r="C361">
-        <v>463</v>
+        <v>531</v>
       </c>
       <c r="D361">
-        <v>473.5</v>
+        <v>507.5</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5454,10 +5454,10 @@
         <v>384</v>
       </c>
       <c r="C362">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D362">
-        <v>359.5</v>
+        <v>360.5</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5468,10 +5468,10 @@
         <v>1473</v>
       </c>
       <c r="C363">
-        <v>1494</v>
+        <v>1551</v>
       </c>
       <c r="D363">
-        <v>1483.5</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5482,10 +5482,10 @@
         <v>280</v>
       </c>
       <c r="C364">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="D364">
-        <v>280.5</v>
+        <v>253</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5496,10 +5496,10 @@
         <v>268</v>
       </c>
       <c r="C365">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="D365">
-        <v>270.5</v>
+        <v>263.5</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5510,10 +5510,10 @@
         <v>760</v>
       </c>
       <c r="C366">
-        <v>797</v>
+        <v>821</v>
       </c>
       <c r="D366">
-        <v>778.5</v>
+        <v>790.5</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -5524,10 +5524,10 @@
         <v>129</v>
       </c>
       <c r="C367">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="D367">
-        <v>112</v>
+        <v>140.5</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -5538,10 +5538,10 @@
         <v>228</v>
       </c>
       <c r="C368">
-        <v>208</v>
+        <v>308</v>
       </c>
       <c r="D368">
-        <v>218</v>
+        <v>268</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -5552,10 +5552,10 @@
         <v>296</v>
       </c>
       <c r="C369">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="D369">
-        <v>290</v>
+        <v>310</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -5566,10 +5566,10 @@
         <v>155</v>
       </c>
       <c r="C370">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="D370">
-        <v>156</v>
+        <v>172.5</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -5580,10 +5580,10 @@
         <v>961</v>
       </c>
       <c r="C371">
-        <v>884</v>
+        <v>996</v>
       </c>
       <c r="D371">
-        <v>922.5</v>
+        <v>978.5</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -5594,10 +5594,10 @@
         <v>231</v>
       </c>
       <c r="C372">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="D372">
-        <v>243.5</v>
+        <v>221.5</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -5608,10 +5608,10 @@
         <v>321</v>
       </c>
       <c r="C373">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="D373">
-        <v>338.5</v>
+        <v>351</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -5622,10 +5622,10 @@
         <v>1196</v>
       </c>
       <c r="C374">
-        <v>1046</v>
+        <v>1009</v>
       </c>
       <c r="D374">
-        <v>1121</v>
+        <v>1102.5</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -5636,10 +5636,10 @@
         <v>66</v>
       </c>
       <c r="C375">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D375">
-        <v>72</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -5650,10 +5650,10 @@
         <v>1944</v>
       </c>
       <c r="C376">
-        <v>1853</v>
+        <v>1948</v>
       </c>
       <c r="D376">
-        <v>1898.5</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -5664,10 +5664,10 @@
         <v>273</v>
       </c>
       <c r="C377">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="D377">
-        <v>271.5</v>
+        <v>282</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -5678,10 +5678,10 @@
         <v>1542</v>
       </c>
       <c r="C378">
-        <v>1609</v>
+        <v>1651</v>
       </c>
       <c r="D378">
-        <v>1575.5</v>
+        <v>1596.5</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -5692,10 +5692,10 @@
         <v>17</v>
       </c>
       <c r="C379">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D379">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -5706,10 +5706,10 @@
         <v>1438</v>
       </c>
       <c r="C380">
-        <v>1474</v>
+        <v>1516</v>
       </c>
       <c r="D380">
-        <v>1456</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -5734,10 +5734,10 @@
         <v>1440</v>
       </c>
       <c r="C382">
-        <v>1444</v>
+        <v>1490</v>
       </c>
       <c r="D382">
-        <v>1442</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -5748,10 +5748,10 @@
         <v>717</v>
       </c>
       <c r="C383">
-        <v>684</v>
+        <v>735</v>
       </c>
       <c r="D383">
-        <v>700.5</v>
+        <v>726</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -5762,10 +5762,10 @@
         <v>209</v>
       </c>
       <c r="C384">
-        <v>209</v>
+        <v>265</v>
       </c>
       <c r="D384">
-        <v>209</v>
+        <v>237</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -5776,10 +5776,10 @@
         <v>232</v>
       </c>
       <c r="C385">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="D385">
-        <v>219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -5790,10 +5790,10 @@
         <v>1759</v>
       </c>
       <c r="C386">
-        <v>1735</v>
+        <v>1778</v>
       </c>
       <c r="D386">
-        <v>1747</v>
+        <v>1768.5</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -5804,10 +5804,10 @@
         <v>611</v>
       </c>
       <c r="C387">
-        <v>595</v>
+        <v>671</v>
       </c>
       <c r="D387">
-        <v>603</v>
+        <v>641</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -5818,10 +5818,10 @@
         <v>45</v>
       </c>
       <c r="C388">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D388">
-        <v>41</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -5832,10 +5832,10 @@
         <v>368</v>
       </c>
       <c r="C389">
-        <v>387</v>
+        <v>30</v>
       </c>
       <c r="D389">
-        <v>377.5</v>
+        <v>199</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -5846,10 +5846,10 @@
         <v>123</v>
       </c>
       <c r="C390">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="D390">
-        <v>144.5</v>
+        <v>160</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -5860,10 +5860,10 @@
         <v>3181</v>
       </c>
       <c r="C391">
-        <v>3083</v>
+        <v>3108</v>
       </c>
       <c r="D391">
-        <v>3132</v>
+        <v>3144.5</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -5874,10 +5874,10 @@
         <v>301</v>
       </c>
       <c r="C392">
-        <v>221</v>
+        <v>398</v>
       </c>
       <c r="D392">
-        <v>261</v>
+        <v>349.5</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -5888,10 +5888,10 @@
         <v>1926</v>
       </c>
       <c r="C393">
-        <v>1883</v>
+        <v>1943</v>
       </c>
       <c r="D393">
-        <v>1904.5</v>
+        <v>1934.5</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -5902,10 +5902,10 @@
         <v>435</v>
       </c>
       <c r="C394">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="D394">
-        <v>452.5</v>
+        <v>460</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -5916,10 +5916,10 @@
         <v>840</v>
       </c>
       <c r="C395">
-        <v>853</v>
+        <v>907</v>
       </c>
       <c r="D395">
-        <v>846.5</v>
+        <v>873.5</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -5930,10 +5930,10 @@
         <v>1516</v>
       </c>
       <c r="C396">
-        <v>1546</v>
+        <v>1616</v>
       </c>
       <c r="D396">
-        <v>1531</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -5944,10 +5944,10 @@
         <v>1407</v>
       </c>
       <c r="C397">
-        <v>1432</v>
+        <v>1480</v>
       </c>
       <c r="D397">
-        <v>1419.5</v>
+        <v>1443.5</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -5958,10 +5958,10 @@
         <v>125</v>
       </c>
       <c r="C398">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="D398">
-        <v>146</v>
+        <v>163.5</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -5972,10 +5972,10 @@
         <v>486</v>
       </c>
       <c r="C399">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="D399">
-        <v>467</v>
+        <v>477.5</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -5986,10 +5986,10 @@
         <v>357</v>
       </c>
       <c r="C400">
-        <v>317</v>
+        <v>28</v>
       </c>
       <c r="D400">
-        <v>337</v>
+        <v>192.5</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -6000,10 +6000,10 @@
         <v>1267</v>
       </c>
       <c r="C401">
-        <v>1193</v>
+        <v>1162</v>
       </c>
       <c r="D401">
-        <v>1230</v>
+        <v>1214.5</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -6014,10 +6014,10 @@
         <v>1418</v>
       </c>
       <c r="C402">
-        <v>1442</v>
+        <v>1499</v>
       </c>
       <c r="D402">
-        <v>1430</v>
+        <v>1458.5</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -6028,10 +6028,10 @@
         <v>1782</v>
       </c>
       <c r="C403">
-        <v>1748</v>
+        <v>1720</v>
       </c>
       <c r="D403">
-        <v>1765</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -6042,10 +6042,10 @@
         <v>148</v>
       </c>
       <c r="C404">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D404">
-        <v>155.5</v>
+        <v>159.5</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -6056,10 +6056,10 @@
         <v>26</v>
       </c>
       <c r="C405">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D405">
-        <v>22.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6070,10 +6070,10 @@
         <v>1521</v>
       </c>
       <c r="C406">
-        <v>1562</v>
+        <v>1597</v>
       </c>
       <c r="D406">
-        <v>1541.5</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -6084,10 +6084,10 @@
         <v>1925</v>
       </c>
       <c r="C407">
-        <v>1901</v>
+        <v>1971</v>
       </c>
       <c r="D407">
-        <v>1913</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -6098,10 +6098,10 @@
         <v>28</v>
       </c>
       <c r="C408">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D408">
-        <v>23</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -6112,10 +6112,10 @@
         <v>4371</v>
       </c>
       <c r="C409">
-        <v>4315</v>
+        <v>4354</v>
       </c>
       <c r="D409">
-        <v>4343</v>
+        <v>4362.5</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -6126,10 +6126,10 @@
         <v>221</v>
       </c>
       <c r="C410">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="D410">
-        <v>219.5</v>
+        <v>232.5</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -6140,10 +6140,10 @@
         <v>1294</v>
       </c>
       <c r="C411">
-        <v>1572</v>
+        <v>1358</v>
       </c>
       <c r="D411">
-        <v>1433</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -6154,10 +6154,10 @@
         <v>681</v>
       </c>
       <c r="C412">
-        <v>704</v>
+        <v>722</v>
       </c>
       <c r="D412">
-        <v>692.5</v>
+        <v>701.5</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -6168,10 +6168,10 @@
         <v>2047</v>
       </c>
       <c r="C413">
-        <v>1976</v>
+        <v>2003</v>
       </c>
       <c r="D413">
-        <v>2011.5</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -6182,10 +6182,10 @@
         <v>348</v>
       </c>
       <c r="C414">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="D414">
-        <v>351.5</v>
+        <v>361</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -6196,10 +6196,10 @@
         <v>249</v>
       </c>
       <c r="C415">
-        <v>8</v>
+        <v>351</v>
       </c>
       <c r="D415">
-        <v>128.5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -6210,10 +6210,10 @@
         <v>234</v>
       </c>
       <c r="C416">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="D416">
-        <v>236.5</v>
+        <v>252</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -6224,10 +6224,10 @@
         <v>99</v>
       </c>
       <c r="C417">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="D417">
-        <v>105.5</v>
+        <v>115</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -6238,10 +6238,10 @@
         <v>1504</v>
       </c>
       <c r="C418">
-        <v>1548</v>
+        <v>1588</v>
       </c>
       <c r="D418">
-        <v>1526</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -6252,10 +6252,10 @@
         <v>60</v>
       </c>
       <c r="C419">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D419">
-        <v>59.5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -6266,10 +6266,10 @@
         <v>818</v>
       </c>
       <c r="C420">
-        <v>763</v>
+        <v>879</v>
       </c>
       <c r="D420">
-        <v>790.5</v>
+        <v>848.5</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -6280,10 +6280,10 @@
         <v>1596</v>
       </c>
       <c r="C421">
-        <v>1590</v>
+        <v>1626</v>
       </c>
       <c r="D421">
-        <v>1593</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -6294,10 +6294,10 @@
         <v>1424</v>
       </c>
       <c r="C422">
-        <v>1460</v>
+        <v>1489</v>
       </c>
       <c r="D422">
-        <v>1442</v>
+        <v>1456.5</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -6308,10 +6308,10 @@
         <v>1492</v>
       </c>
       <c r="C423">
-        <v>1504</v>
+        <v>1566</v>
       </c>
       <c r="D423">
-        <v>1498</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -6322,10 +6322,10 @@
         <v>4579</v>
       </c>
       <c r="C424">
-        <v>4445</v>
+        <v>4546</v>
       </c>
       <c r="D424">
-        <v>4512</v>
+        <v>4562.5</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -6336,10 +6336,10 @@
         <v>1722</v>
       </c>
       <c r="C425">
-        <v>1759</v>
+        <v>1722</v>
       </c>
       <c r="D425">
-        <v>1740.5</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -6350,10 +6350,10 @@
         <v>1399</v>
       </c>
       <c r="C426">
-        <v>1425</v>
+        <v>1485</v>
       </c>
       <c r="D426">
-        <v>1412</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -6364,10 +6364,10 @@
         <v>1403</v>
       </c>
       <c r="C427">
-        <v>1426</v>
+        <v>1482</v>
       </c>
       <c r="D427">
-        <v>1414.5</v>
+        <v>1442.5</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -6378,10 +6378,10 @@
         <v>1339</v>
       </c>
       <c r="C428">
-        <v>1374</v>
+        <v>1408</v>
       </c>
       <c r="D428">
-        <v>1356.5</v>
+        <v>1373.5</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -6392,10 +6392,10 @@
         <v>1013</v>
       </c>
       <c r="C429">
-        <v>1007</v>
+        <v>1053</v>
       </c>
       <c r="D429">
-        <v>1010</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -6406,10 +6406,10 @@
         <v>733</v>
       </c>
       <c r="C430">
-        <v>716</v>
+        <v>678</v>
       </c>
       <c r="D430">
-        <v>724.5</v>
+        <v>705.5</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -6420,10 +6420,10 @@
         <v>2679</v>
       </c>
       <c r="C431">
-        <v>2710</v>
+        <v>2768</v>
       </c>
       <c r="D431">
-        <v>2694.5</v>
+        <v>2723.5</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -6434,10 +6434,10 @@
         <v>2661</v>
       </c>
       <c r="C432">
-        <v>2663</v>
+        <v>2691</v>
       </c>
       <c r="D432">
-        <v>2662</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -6448,10 +6448,10 @@
         <v>124</v>
       </c>
       <c r="C433">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D433">
-        <v>122</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -6462,10 +6462,10 @@
         <v>1058</v>
       </c>
       <c r="C434">
-        <v>1132</v>
+        <v>1302</v>
       </c>
       <c r="D434">
-        <v>1095</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -6476,10 +6476,10 @@
         <v>3</v>
       </c>
       <c r="C435">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D435">
-        <v>28.5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -6490,10 +6490,10 @@
         <v>2586</v>
       </c>
       <c r="C436">
-        <v>2530</v>
+        <v>2574</v>
       </c>
       <c r="D436">
-        <v>2558</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -6504,10 +6504,10 @@
         <v>5</v>
       </c>
       <c r="C437">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="D437">
-        <v>29</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -6518,10 +6518,10 @@
         <v>1455</v>
       </c>
       <c r="C438">
-        <v>1478</v>
+        <v>1528</v>
       </c>
       <c r="D438">
-        <v>1466.5</v>
+        <v>1491.5</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -6532,10 +6532,10 @@
         <v>426</v>
       </c>
       <c r="C439">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="D439">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -6546,10 +6546,10 @@
         <v>254</v>
       </c>
       <c r="C440">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="D440">
-        <v>262.5</v>
+        <v>268.5</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -6560,10 +6560,10 @@
         <v>1429</v>
       </c>
       <c r="C441">
-        <v>1452</v>
+        <v>1493</v>
       </c>
       <c r="D441">
-        <v>1440.5</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -6574,10 +6574,10 @@
         <v>412</v>
       </c>
       <c r="C442">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D442">
-        <v>414.5</v>
+        <v>415</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -6588,10 +6588,10 @@
         <v>876</v>
       </c>
       <c r="C443">
-        <v>819</v>
+        <v>1016</v>
       </c>
       <c r="D443">
-        <v>847.5</v>
+        <v>946</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -6602,10 +6602,10 @@
         <v>1924</v>
       </c>
       <c r="C444">
-        <v>1983</v>
+        <v>2033</v>
       </c>
       <c r="D444">
-        <v>1953.5</v>
+        <v>1978.5</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -6616,10 +6616,10 @@
         <v>802</v>
       </c>
       <c r="C445">
-        <v>821</v>
+        <v>802</v>
       </c>
       <c r="D445">
-        <v>811.5</v>
+        <v>802</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -6630,10 +6630,10 @@
         <v>986</v>
       </c>
       <c r="C446">
-        <v>941</v>
+        <v>1046</v>
       </c>
       <c r="D446">
-        <v>963.5</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -6644,10 +6644,10 @@
         <v>219</v>
       </c>
       <c r="C447">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="D447">
-        <v>254</v>
+        <v>261.5</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -6658,10 +6658,10 @@
         <v>1367</v>
       </c>
       <c r="C448">
-        <v>1394</v>
+        <v>1445</v>
       </c>
       <c r="D448">
-        <v>1380.5</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -6672,10 +6672,10 @@
         <v>2144</v>
       </c>
       <c r="C449">
-        <v>2122</v>
+        <v>2177</v>
       </c>
       <c r="D449">
-        <v>2133</v>
+        <v>2160.5</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -6686,10 +6686,10 @@
         <v>628</v>
       </c>
       <c r="C450">
-        <v>576</v>
+        <v>633</v>
       </c>
       <c r="D450">
-        <v>602</v>
+        <v>630.5</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -6700,10 +6700,10 @@
         <v>1370</v>
       </c>
       <c r="C451">
-        <v>1395</v>
+        <v>1447</v>
       </c>
       <c r="D451">
-        <v>1382.5</v>
+        <v>1408.5</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -6714,10 +6714,10 @@
         <v>411</v>
       </c>
       <c r="C452">
-        <v>439</v>
+        <v>464</v>
       </c>
       <c r="D452">
-        <v>425</v>
+        <v>437.5</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -6728,10 +6728,10 @@
         <v>185</v>
       </c>
       <c r="C453">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="D453">
-        <v>180.5</v>
+        <v>204</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -6742,10 +6742,10 @@
         <v>2951</v>
       </c>
       <c r="C454">
-        <v>2969</v>
+        <v>2971</v>
       </c>
       <c r="D454">
-        <v>2960</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -6756,10 +6756,10 @@
         <v>1895</v>
       </c>
       <c r="C455">
-        <v>1873</v>
+        <v>1806</v>
       </c>
       <c r="D455">
-        <v>1884</v>
+        <v>1850.5</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -6770,10 +6770,10 @@
         <v>1447</v>
       </c>
       <c r="C456">
-        <v>1479</v>
+        <v>1532</v>
       </c>
       <c r="D456">
-        <v>1463</v>
+        <v>1489.5</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -6784,10 +6784,10 @@
         <v>1900</v>
       </c>
       <c r="C457">
-        <v>1888</v>
+        <v>1916</v>
       </c>
       <c r="D457">
-        <v>1894</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -6798,10 +6798,10 @@
         <v>1518</v>
       </c>
       <c r="C458">
-        <v>1714</v>
+        <v>1346</v>
       </c>
       <c r="D458">
-        <v>1616</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -6812,10 +6812,10 @@
         <v>222</v>
       </c>
       <c r="C459">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="D459">
-        <v>235.5</v>
+        <v>215</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -6826,10 +6826,10 @@
         <v>623</v>
       </c>
       <c r="C460">
-        <v>618</v>
+        <v>592</v>
       </c>
       <c r="D460">
-        <v>620.5</v>
+        <v>607.5</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -6840,10 +6840,10 @@
         <v>1570</v>
       </c>
       <c r="C461">
-        <v>1591</v>
+        <v>1663</v>
       </c>
       <c r="D461">
-        <v>1580.5</v>
+        <v>1616.5</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -6854,10 +6854,10 @@
         <v>1479</v>
       </c>
       <c r="C462">
-        <v>1482</v>
+        <v>1545</v>
       </c>
       <c r="D462">
-        <v>1480.5</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -6868,10 +6868,10 @@
         <v>1434</v>
       </c>
       <c r="C463">
-        <v>1456</v>
+        <v>1521</v>
       </c>
       <c r="D463">
-        <v>1445</v>
+        <v>1477.5</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -6882,10 +6882,10 @@
         <v>2325</v>
       </c>
       <c r="C464">
-        <v>2382</v>
+        <v>2198</v>
       </c>
       <c r="D464">
-        <v>2353.5</v>
+        <v>2261.5</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -6896,10 +6896,10 @@
         <v>600</v>
       </c>
       <c r="C465">
-        <v>624</v>
+        <v>643</v>
       </c>
       <c r="D465">
-        <v>612</v>
+        <v>621.5</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -6910,10 +6910,10 @@
         <v>776</v>
       </c>
       <c r="C466">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="D466">
-        <v>775.5</v>
+        <v>768.5</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -6924,10 +6924,10 @@
         <v>1355</v>
       </c>
       <c r="C467">
-        <v>1364</v>
+        <v>1425</v>
       </c>
       <c r="D467">
-        <v>1359.5</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -6935,10 +6935,10 @@
         <v>5855</v>
       </c>
       <c r="C468">
-        <v>548</v>
+        <v>573</v>
       </c>
       <c r="D468">
-        <v>548</v>
+        <v>573</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -6949,10 +6949,10 @@
         <v>862</v>
       </c>
       <c r="C469">
-        <v>799</v>
+        <v>1012</v>
       </c>
       <c r="D469">
-        <v>830.5</v>
+        <v>937</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -6963,10 +6963,10 @@
         <v>530</v>
       </c>
       <c r="C470">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="D470">
-        <v>513.5</v>
+        <v>516.5</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -6977,10 +6977,10 @@
         <v>2995</v>
       </c>
       <c r="C471">
-        <v>3037</v>
+        <v>2937</v>
       </c>
       <c r="D471">
-        <v>3016</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -6991,10 +6991,10 @@
         <v>23</v>
       </c>
       <c r="C472">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D472">
-        <v>19.5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -7005,10 +7005,10 @@
         <v>1650</v>
       </c>
       <c r="C473">
-        <v>1641</v>
+        <v>1706</v>
       </c>
       <c r="D473">
-        <v>1645.5</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -7019,10 +7019,10 @@
         <v>3314</v>
       </c>
       <c r="C474">
-        <v>3246</v>
+        <v>3388</v>
       </c>
       <c r="D474">
-        <v>3280</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -7033,10 +7033,10 @@
         <v>1197</v>
       </c>
       <c r="C475">
-        <v>1160</v>
+        <v>1069</v>
       </c>
       <c r="D475">
-        <v>1178.5</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -7047,10 +7047,10 @@
         <v>1371</v>
       </c>
       <c r="C476">
-        <v>1391</v>
+        <v>1449</v>
       </c>
       <c r="D476">
-        <v>1381</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -7061,10 +7061,10 @@
         <v>1428</v>
       </c>
       <c r="C477">
-        <v>1470</v>
+        <v>1509</v>
       </c>
       <c r="D477">
-        <v>1449</v>
+        <v>1468.5</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -7075,10 +7075,10 @@
         <v>1641</v>
       </c>
       <c r="C478">
-        <v>1674</v>
+        <v>1729</v>
       </c>
       <c r="D478">
-        <v>1657.5</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -7089,10 +7089,10 @@
         <v>194</v>
       </c>
       <c r="C479">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="D479">
-        <v>196</v>
+        <v>227.5</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -7103,10 +7103,10 @@
         <v>122</v>
       </c>
       <c r="C480">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D480">
-        <v>124.5</v>
+        <v>130.5</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -7117,10 +7117,10 @@
         <v>525</v>
       </c>
       <c r="C481">
-        <v>511</v>
+        <v>636</v>
       </c>
       <c r="D481">
-        <v>518</v>
+        <v>580.5</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -7131,10 +7131,10 @@
         <v>33</v>
       </c>
       <c r="C482">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D482">
-        <v>31</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -7145,10 +7145,10 @@
         <v>569</v>
       </c>
       <c r="C483">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="D483">
-        <v>546.5</v>
+        <v>543</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -7159,10 +7159,10 @@
         <v>207</v>
       </c>
       <c r="C484">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D484">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -7173,10 +7173,10 @@
         <v>3602</v>
       </c>
       <c r="C485">
-        <v>3609</v>
+        <v>3566</v>
       </c>
       <c r="D485">
-        <v>3605.5</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -7187,10 +7187,10 @@
         <v>84</v>
       </c>
       <c r="C486">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="D486">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -7201,10 +7201,10 @@
         <v>619</v>
       </c>
       <c r="C487">
-        <v>622</v>
+        <v>670</v>
       </c>
       <c r="D487">
-        <v>620.5</v>
+        <v>644.5</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -7215,10 +7215,10 @@
         <v>625</v>
       </c>
       <c r="C488">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="D488">
-        <v>647</v>
+        <v>654</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -7229,10 +7229,10 @@
         <v>57</v>
       </c>
       <c r="C489">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D489">
-        <v>48</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -7243,10 +7243,10 @@
         <v>2147</v>
       </c>
       <c r="C490">
-        <v>2166</v>
+        <v>2190</v>
       </c>
       <c r="D490">
-        <v>2156.5</v>
+        <v>2168.5</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -7257,10 +7257,10 @@
         <v>1532</v>
       </c>
       <c r="C491">
-        <v>1563</v>
+        <v>1583</v>
       </c>
       <c r="D491">
-        <v>1547.5</v>
+        <v>1557.5</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -7271,10 +7271,10 @@
         <v>510</v>
       </c>
       <c r="C492">
-        <v>498</v>
+        <v>536</v>
       </c>
       <c r="D492">
-        <v>504</v>
+        <v>523</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -7285,10 +7285,10 @@
         <v>1423</v>
       </c>
       <c r="C493">
-        <v>1458</v>
+        <v>1507</v>
       </c>
       <c r="D493">
-        <v>1440.5</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -7299,10 +7299,10 @@
         <v>2771</v>
       </c>
       <c r="C494">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="D494">
-        <v>2786.5</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -7313,10 +7313,10 @@
         <v>2596</v>
       </c>
       <c r="C495">
-        <v>2612</v>
+        <v>2683</v>
       </c>
       <c r="D495">
-        <v>2604</v>
+        <v>2639.5</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -7327,10 +7327,10 @@
         <v>282</v>
       </c>
       <c r="C496">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="D496">
-        <v>273.5</v>
+        <v>290.5</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -7341,10 +7341,10 @@
         <v>851</v>
       </c>
       <c r="C497">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="D497">
-        <v>870</v>
+        <v>862.5</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -7355,10 +7355,10 @@
         <v>103</v>
       </c>
       <c r="C498">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D498">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -7369,10 +7369,10 @@
         <v>1757</v>
       </c>
       <c r="C499">
-        <v>1731</v>
+        <v>1776</v>
       </c>
       <c r="D499">
-        <v>1744</v>
+        <v>1766.5</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -7383,10 +7383,10 @@
         <v>335</v>
       </c>
       <c r="C500">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="D500">
-        <v>339.5</v>
+        <v>357</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -7397,10 +7397,10 @@
         <v>1398</v>
       </c>
       <c r="C501">
-        <v>1418</v>
+        <v>1462</v>
       </c>
       <c r="D501">
-        <v>1408</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -7411,10 +7411,10 @@
         <v>885</v>
       </c>
       <c r="C502">
-        <v>960</v>
+        <v>927</v>
       </c>
       <c r="D502">
-        <v>922.5</v>
+        <v>906</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -7425,10 +7425,10 @@
         <v>782</v>
       </c>
       <c r="C503">
-        <v>794</v>
+        <v>863</v>
       </c>
       <c r="D503">
-        <v>788</v>
+        <v>822.5</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -7439,10 +7439,10 @@
         <v>2410</v>
       </c>
       <c r="C504">
-        <v>2266</v>
+        <v>2342</v>
       </c>
       <c r="D504">
-        <v>2338</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -7453,10 +7453,10 @@
         <v>1247</v>
       </c>
       <c r="C505">
-        <v>1371</v>
+        <v>1375</v>
       </c>
       <c r="D505">
-        <v>1309</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -7467,10 +7467,10 @@
         <v>464</v>
       </c>
       <c r="C506">
-        <v>382</v>
+        <v>490</v>
       </c>
       <c r="D506">
-        <v>423</v>
+        <v>477</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -7481,10 +7481,10 @@
         <v>3269</v>
       </c>
       <c r="C507">
-        <v>3303</v>
+        <v>3335</v>
       </c>
       <c r="D507">
-        <v>3286</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -7495,10 +7495,10 @@
         <v>1348</v>
       </c>
       <c r="C508">
-        <v>1598</v>
+        <v>1672</v>
       </c>
       <c r="D508">
-        <v>1473</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -7509,10 +7509,10 @@
         <v>1383</v>
       </c>
       <c r="C509">
-        <v>1408</v>
+        <v>1460</v>
       </c>
       <c r="D509">
-        <v>1395.5</v>
+        <v>1421.5</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -7523,10 +7523,10 @@
         <v>616</v>
       </c>
       <c r="C510">
-        <v>619</v>
+        <v>661</v>
       </c>
       <c r="D510">
-        <v>617.5</v>
+        <v>638.5</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -7537,10 +7537,10 @@
         <v>373</v>
       </c>
       <c r="C511">
-        <v>313</v>
+        <v>459</v>
       </c>
       <c r="D511">
-        <v>343</v>
+        <v>416</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -7551,10 +7551,10 @@
         <v>452</v>
       </c>
       <c r="C512">
-        <v>493</v>
+        <v>521</v>
       </c>
       <c r="D512">
-        <v>472.5</v>
+        <v>486.5</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -7565,10 +7565,10 @@
         <v>156</v>
       </c>
       <c r="C513">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="D513">
-        <v>158</v>
+        <v>173.5</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -7579,10 +7579,10 @@
         <v>643</v>
       </c>
       <c r="C514">
-        <v>641</v>
+        <v>602</v>
       </c>
       <c r="D514">
-        <v>642</v>
+        <v>622.5</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -7593,10 +7593,10 @@
         <v>1474</v>
       </c>
       <c r="C515">
-        <v>1449</v>
+        <v>1536</v>
       </c>
       <c r="D515">
-        <v>1461.5</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -7607,10 +7607,10 @@
         <v>749</v>
       </c>
       <c r="C516">
-        <v>748</v>
+        <v>704</v>
       </c>
       <c r="D516">
-        <v>748.5</v>
+        <v>726.5</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -7621,10 +7621,10 @@
         <v>101</v>
       </c>
       <c r="C517">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="D517">
-        <v>112</v>
+        <v>119.5</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -7635,10 +7635,10 @@
         <v>1063</v>
       </c>
       <c r="C518">
-        <v>980</v>
+        <v>949</v>
       </c>
       <c r="D518">
-        <v>1021.5</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -7649,10 +7649,10 @@
         <v>997</v>
       </c>
       <c r="C519">
-        <v>1062</v>
+        <v>990</v>
       </c>
       <c r="D519">
-        <v>1029.5</v>
+        <v>993.5</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -7663,10 +7663,10 @@
         <v>399</v>
       </c>
       <c r="C520">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D520">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -7677,10 +7677,10 @@
         <v>353</v>
       </c>
       <c r="C521">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="D521">
-        <v>357</v>
+        <v>372.5</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -7691,10 +7691,10 @@
         <v>297</v>
       </c>
       <c r="C522">
-        <v>280</v>
+        <v>347</v>
       </c>
       <c r="D522">
-        <v>288.5</v>
+        <v>322</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -7705,10 +7705,10 @@
         <v>290</v>
       </c>
       <c r="C523">
-        <v>315</v>
+        <v>378</v>
       </c>
       <c r="D523">
-        <v>302.5</v>
+        <v>334</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -7719,10 +7719,10 @@
         <v>49</v>
       </c>
       <c r="C524">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D524">
-        <v>42.5</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -7733,10 +7733,10 @@
         <v>69</v>
       </c>
       <c r="C525">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D525">
-        <v>74.5</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -7747,10 +7747,10 @@
         <v>972</v>
       </c>
       <c r="C526">
-        <v>994</v>
+        <v>1056</v>
       </c>
       <c r="D526">
-        <v>983</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -7761,10 +7761,10 @@
         <v>735</v>
       </c>
       <c r="C527">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="D527">
-        <v>701.5</v>
+        <v>705</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -7775,10 +7775,10 @@
         <v>2327</v>
       </c>
       <c r="C528">
-        <v>2278</v>
+        <v>2368</v>
       </c>
       <c r="D528">
-        <v>2302.5</v>
+        <v>2347.5</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -7789,10 +7789,10 @@
         <v>1264</v>
       </c>
       <c r="C529">
-        <v>1280</v>
+        <v>1192</v>
       </c>
       <c r="D529">
-        <v>1272</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -7803,10 +7803,10 @@
         <v>326</v>
       </c>
       <c r="C530">
-        <v>347</v>
+        <v>435</v>
       </c>
       <c r="D530">
-        <v>336.5</v>
+        <v>380.5</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -7817,10 +7817,10 @@
         <v>1374</v>
       </c>
       <c r="C531">
-        <v>1392</v>
+        <v>1448</v>
       </c>
       <c r="D531">
-        <v>1383</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -7831,10 +7831,10 @@
         <v>201</v>
       </c>
       <c r="C532">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="D532">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -7845,10 +7845,10 @@
         <v>1358</v>
       </c>
       <c r="C533">
-        <v>1380</v>
+        <v>1439</v>
       </c>
       <c r="D533">
-        <v>1369</v>
+        <v>1398.5</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -7859,10 +7859,10 @@
         <v>2165</v>
       </c>
       <c r="C534">
-        <v>2304</v>
+        <v>27</v>
       </c>
       <c r="D534">
-        <v>2234.5</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -7873,10 +7873,10 @@
         <v>2025</v>
       </c>
       <c r="C535">
-        <v>2069</v>
+        <v>2008</v>
       </c>
       <c r="D535">
-        <v>2047</v>
+        <v>2016.5</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -7887,10 +7887,10 @@
         <v>1953</v>
       </c>
       <c r="C536">
-        <v>1989</v>
+        <v>1983</v>
       </c>
       <c r="D536">
-        <v>1971</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -7901,10 +7901,10 @@
         <v>504</v>
       </c>
       <c r="C537">
-        <v>500</v>
+        <v>534</v>
       </c>
       <c r="D537">
-        <v>502</v>
+        <v>519</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -7915,10 +7915,10 @@
         <v>1382</v>
       </c>
       <c r="C538">
-        <v>1400</v>
+        <v>1459</v>
       </c>
       <c r="D538">
-        <v>1391</v>
+        <v>1420.5</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -7929,10 +7929,10 @@
         <v>312</v>
       </c>
       <c r="C539">
-        <v>330</v>
+        <v>423</v>
       </c>
       <c r="D539">
-        <v>321</v>
+        <v>367.5</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -7943,10 +7943,10 @@
         <v>1357</v>
       </c>
       <c r="C540">
-        <v>1378</v>
+        <v>1415</v>
       </c>
       <c r="D540">
-        <v>1367.5</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -7957,10 +7957,10 @@
         <v>571</v>
       </c>
       <c r="C541">
-        <v>472</v>
+        <v>578</v>
       </c>
       <c r="D541">
-        <v>521.5</v>
+        <v>574.5</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -7971,10 +7971,10 @@
         <v>420</v>
       </c>
       <c r="C542">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="D542">
-        <v>452</v>
+        <v>462.5</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -7985,10 +7985,10 @@
         <v>75</v>
       </c>
       <c r="C543">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="D543">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -7999,10 +7999,10 @@
         <v>1487</v>
       </c>
       <c r="C544">
-        <v>1540</v>
+        <v>1575</v>
       </c>
       <c r="D544">
-        <v>1513.5</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -8013,10 +8013,10 @@
         <v>1432</v>
       </c>
       <c r="C545">
-        <v>1451</v>
+        <v>1520</v>
       </c>
       <c r="D545">
-        <v>1441.5</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -8027,10 +8027,10 @@
         <v>1369</v>
       </c>
       <c r="C546">
-        <v>1396</v>
+        <v>1450</v>
       </c>
       <c r="D546">
-        <v>1382.5</v>
+        <v>1409.5</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -8041,10 +8041,10 @@
         <v>1400</v>
       </c>
       <c r="C547">
-        <v>1419</v>
+        <v>1469</v>
       </c>
       <c r="D547">
-        <v>1409.5</v>
+        <v>1434.5</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -8055,10 +8055,10 @@
         <v>1071</v>
       </c>
       <c r="C548">
-        <v>1129</v>
+        <v>1275</v>
       </c>
       <c r="D548">
-        <v>1100</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -8069,10 +8069,10 @@
         <v>866</v>
       </c>
       <c r="C549">
-        <v>864</v>
+        <v>935</v>
       </c>
       <c r="D549">
-        <v>865</v>
+        <v>900.5</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -8083,10 +8083,10 @@
         <v>379</v>
       </c>
       <c r="C550">
-        <v>408</v>
+        <v>443</v>
       </c>
       <c r="D550">
-        <v>393.5</v>
+        <v>411</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -8097,10 +8097,10 @@
         <v>1690</v>
       </c>
       <c r="C551">
-        <v>1662</v>
+        <v>1714</v>
       </c>
       <c r="D551">
-        <v>1676</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -8111,10 +8111,10 @@
         <v>1102</v>
       </c>
       <c r="C552">
-        <v>1050</v>
+        <v>1170</v>
       </c>
       <c r="D552">
-        <v>1076</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -8125,10 +8125,10 @@
         <v>1891</v>
       </c>
       <c r="C553">
-        <v>1871</v>
+        <v>1898</v>
       </c>
       <c r="D553">
-        <v>1881</v>
+        <v>1894.5</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -8139,10 +8139,10 @@
         <v>1452</v>
       </c>
       <c r="C554">
-        <v>1472</v>
+        <v>1540</v>
       </c>
       <c r="D554">
-        <v>1462</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -8153,10 +8153,10 @@
         <v>1411</v>
       </c>
       <c r="C555">
-        <v>1434</v>
+        <v>1487</v>
       </c>
       <c r="D555">
-        <v>1422.5</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -8167,10 +8167,10 @@
         <v>1463</v>
       </c>
       <c r="C556">
-        <v>1466</v>
+        <v>1508</v>
       </c>
       <c r="D556">
-        <v>1464.5</v>
+        <v>1485.5</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -8181,10 +8181,10 @@
         <v>548</v>
       </c>
       <c r="C557">
-        <v>539</v>
+        <v>626</v>
       </c>
       <c r="D557">
-        <v>543.5</v>
+        <v>587</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -8195,10 +8195,10 @@
         <v>138</v>
       </c>
       <c r="C558">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="D558">
-        <v>133.5</v>
+        <v>143.5</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -8209,10 +8209,10 @@
         <v>25</v>
       </c>
       <c r="C559">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D559">
-        <v>22.5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -8223,10 +8223,10 @@
         <v>425</v>
       </c>
       <c r="C560">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="D560">
-        <v>429.5</v>
+        <v>433</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -8237,10 +8237,10 @@
         <v>579</v>
       </c>
       <c r="C561">
-        <v>564</v>
+        <v>614</v>
       </c>
       <c r="D561">
-        <v>571.5</v>
+        <v>596.5</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -8251,10 +8251,10 @@
         <v>1010</v>
       </c>
       <c r="C562">
-        <v>961</v>
+        <v>1050</v>
       </c>
       <c r="D562">
-        <v>985.5</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -8265,10 +8265,10 @@
         <v>2470</v>
       </c>
       <c r="C563">
-        <v>2471</v>
+        <v>2483</v>
       </c>
       <c r="D563">
-        <v>2470.5</v>
+        <v>2476.5</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -8279,10 +8279,10 @@
         <v>703</v>
       </c>
       <c r="C564">
-        <v>671</v>
+        <v>751</v>
       </c>
       <c r="D564">
-        <v>687</v>
+        <v>727</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -8293,10 +8293,10 @@
         <v>52</v>
       </c>
       <c r="C565">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D565">
-        <v>43.5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -8307,10 +8307,10 @@
         <v>1475</v>
       </c>
       <c r="C566">
-        <v>1495</v>
+        <v>1549</v>
       </c>
       <c r="D566">
-        <v>1485</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -8321,10 +8321,10 @@
         <v>18</v>
       </c>
       <c r="C567">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="D567">
-        <v>40.5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -8335,10 +8335,10 @@
         <v>347</v>
       </c>
       <c r="C568">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="D568">
-        <v>353.5</v>
+        <v>369</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -8349,10 +8349,10 @@
         <v>2290</v>
       </c>
       <c r="C569">
-        <v>2214</v>
+        <v>2135</v>
       </c>
       <c r="D569">
-        <v>2252</v>
+        <v>2212.5</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -8363,10 +8363,10 @@
         <v>444</v>
       </c>
       <c r="C570">
-        <v>367</v>
+        <v>432</v>
       </c>
       <c r="D570">
-        <v>405.5</v>
+        <v>438</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -8377,10 +8377,10 @@
         <v>634</v>
       </c>
       <c r="C571">
-        <v>553</v>
+        <v>29</v>
       </c>
       <c r="D571">
-        <v>593.5</v>
+        <v>331.5</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -8391,10 +8391,10 @@
         <v>2013</v>
       </c>
       <c r="C572">
-        <v>1932</v>
+        <v>2012</v>
       </c>
       <c r="D572">
-        <v>1972.5</v>
+        <v>2012.5</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -8405,10 +8405,10 @@
         <v>120</v>
       </c>
       <c r="C573">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="D573">
-        <v>142.5</v>
+        <v>157</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -8419,10 +8419,10 @@
         <v>107</v>
       </c>
       <c r="C574">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="D574">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -8433,10 +8433,10 @@
         <v>233</v>
       </c>
       <c r="C575">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="D575">
-        <v>241.5</v>
+        <v>209</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -8447,10 +8447,10 @@
         <v>771</v>
       </c>
       <c r="C576">
-        <v>774</v>
+        <v>752</v>
       </c>
       <c r="D576">
-        <v>772.5</v>
+        <v>761.5</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -8461,10 +8461,10 @@
         <v>2623</v>
       </c>
       <c r="C577">
-        <v>2629</v>
+        <v>2611</v>
       </c>
       <c r="D577">
-        <v>2626</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -8475,10 +8475,10 @@
         <v>118</v>
       </c>
       <c r="C578">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="D578">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -8489,10 +8489,10 @@
         <v>1801</v>
       </c>
       <c r="C579">
-        <v>1956</v>
+        <v>1909</v>
       </c>
       <c r="D579">
-        <v>1878.5</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -8503,10 +8503,10 @@
         <v>1023</v>
       </c>
       <c r="C580">
-        <v>1162</v>
+        <v>1026</v>
       </c>
       <c r="D580">
-        <v>1092.5</v>
+        <v>1024.5</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -8517,10 +8517,10 @@
         <v>383</v>
       </c>
       <c r="C581">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D581">
-        <v>359.5</v>
+        <v>360.5</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -8531,10 +8531,10 @@
         <v>478</v>
       </c>
       <c r="C582">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="D582">
-        <v>464.5</v>
+        <v>480</v>
       </c>
     </row>
     <row r="583" spans="1:4">
@@ -8545,10 +8545,10 @@
         <v>289</v>
       </c>
       <c r="C583">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="D583">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -8559,10 +8559,10 @@
         <v>111</v>
       </c>
       <c r="C584">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D584">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -8573,7 +8573,7 @@
         <v>1032.274914089347</v>
       </c>
       <c r="C585">
-        <v>1039.339622641509</v>
+        <v>1056.445969125214</v>
       </c>
     </row>
   </sheetData>
